--- a/Unity/Assets/Config/Excel/SkillWeaponConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillWeaponConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE8B8B5-A62D-4AD8-99E5-86C42B6AFFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A489EB-96DB-4276-B4E0-641B220CDD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -99,24 +99,25 @@
   <si>
     <t>召唤野兽</t>
   </si>
+  <si>
+    <t>裂地击</t>
+  </si>
+  <si>
+    <t>跳跃击</t>
+  </si>
+  <si>
+    <t>旋风击</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -137,6 +138,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -184,15 +201,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -468,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:J112"/>
+  <dimension ref="C1:J136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -486,1699 +507,2299 @@
     <row r="1" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
-        <v>50000101</v>
+        <v>1010001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1">
-        <v>60000201</v>
+        <v>1110001</v>
       </c>
       <c r="F6" s="1">
-        <v>60000201</v>
+        <v>1110001</v>
       </c>
       <c r="G6" s="1">
-        <v>60000101</v>
+        <v>1110001</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>1110001</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1110001</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1110001</v>
       </c>
     </row>
     <row r="7" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
-        <v>50000102</v>
+        <v>1010002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1">
-        <v>60000202</v>
+        <v>1110002</v>
       </c>
       <c r="F7" s="1">
-        <v>60000202</v>
+        <v>1110002</v>
       </c>
       <c r="G7" s="1">
-        <v>60000102</v>
+        <v>1110002</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>1110002</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1110002</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1110002</v>
       </c>
     </row>
     <row r="8" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
-        <v>50000103</v>
+        <v>1010003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1">
-        <v>60000203</v>
+        <v>1110003</v>
       </c>
       <c r="F8" s="1">
-        <v>60000203</v>
+        <v>1110003</v>
       </c>
       <c r="G8" s="1">
-        <v>60000103</v>
+        <v>1110003</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>1110003</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>1110003</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1110003</v>
       </c>
     </row>
     <row r="9" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
-        <v>50000201</v>
+        <v>1010004</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1">
-        <v>60000301</v>
+        <v>1110004</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1110004</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>1110004</v>
       </c>
       <c r="H9" s="1">
-        <v>60000301</v>
+        <v>1110004</v>
       </c>
       <c r="I9" s="1">
-        <v>60000401</v>
+        <v>1110004</v>
       </c>
       <c r="J9" s="1">
-        <v>60000401</v>
+        <v>1110004</v>
       </c>
     </row>
     <row r="10" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
-        <v>50000202</v>
+        <v>1010005</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1">
-        <v>60000302</v>
+        <v>1110005</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1110005</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1110005</v>
       </c>
       <c r="H10" s="1">
-        <v>60000302</v>
+        <v>1110005</v>
       </c>
       <c r="I10" s="1">
-        <v>60000402</v>
+        <v>1110005</v>
       </c>
       <c r="J10" s="1">
-        <v>60000402</v>
+        <v>1110005</v>
       </c>
     </row>
     <row r="11" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
-        <v>50000301</v>
+        <v>1010006</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1">
-        <v>60000501</v>
+        <v>1110006</v>
       </c>
       <c r="F11" s="1">
-        <v>60000201</v>
+        <v>1110006</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>1110006</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>1110006</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>1110006</v>
       </c>
       <c r="J11" s="1">
-        <v>60000501</v>
+        <v>1110006</v>
       </c>
     </row>
     <row r="12" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
-        <v>50000302</v>
+        <v>1010011</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1">
-        <v>60000502</v>
+        <v>1110011</v>
       </c>
       <c r="F12" s="1">
-        <v>60000202</v>
+        <v>1110011</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>1110011</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>1110011</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>1110011</v>
       </c>
       <c r="J12" s="1">
-        <v>60000502</v>
+        <v>1110011</v>
       </c>
     </row>
     <row r="13" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
-        <v>51011101</v>
+        <v>1010012</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1">
-        <v>61012101</v>
+        <v>1110012</v>
       </c>
       <c r="F13" s="1">
-        <v>61012101</v>
+        <v>1110012</v>
       </c>
       <c r="G13" s="1">
-        <v>61011101</v>
+        <v>1110012</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>1110012</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>1110012</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1110012</v>
       </c>
     </row>
     <row r="14" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
-        <v>51011102</v>
+        <v>1010013</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1">
-        <v>61012102</v>
+        <v>1110013</v>
       </c>
       <c r="F14" s="1">
-        <v>61012102</v>
+        <v>1110013</v>
       </c>
       <c r="G14" s="1">
-        <v>61011102</v>
+        <v>1110013</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>1110013</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>1110013</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1110013</v>
       </c>
     </row>
     <row r="15" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
-        <v>51011103</v>
+        <v>1010014</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1">
-        <v>61012103</v>
+        <v>1110014</v>
       </c>
       <c r="F15" s="1">
-        <v>61012103</v>
+        <v>1110014</v>
       </c>
       <c r="G15" s="1">
-        <v>61011103</v>
+        <v>1110014</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>1110014</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>1110014</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1110014</v>
       </c>
     </row>
     <row r="16" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
-        <v>51011104</v>
+        <v>1010015</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E16" s="1">
-        <v>61012104</v>
+        <v>1110015</v>
       </c>
       <c r="F16" s="1">
-        <v>61012104</v>
+        <v>1110015</v>
       </c>
       <c r="G16" s="1">
-        <v>61011104</v>
+        <v>1110015</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>1110015</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>1110015</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1110015</v>
       </c>
     </row>
     <row r="17" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
-        <v>51011105</v>
+        <v>1010016</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1">
-        <v>61012105</v>
+        <v>1110016</v>
       </c>
       <c r="F17" s="1">
-        <v>61012105</v>
+        <v>1110016</v>
       </c>
       <c r="G17" s="1">
-        <v>61011105</v>
+        <v>1110016</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>1110016</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>1110016</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1110016</v>
       </c>
     </row>
     <row r="18" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
-        <v>51011106</v>
+        <v>1010021</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1">
-        <v>61012106</v>
+        <v>1110021</v>
       </c>
       <c r="F18" s="1">
-        <v>61012106</v>
+        <v>1110021</v>
       </c>
       <c r="G18" s="1">
-        <v>61011106</v>
+        <v>1110021</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>1110021</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>1110021</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1110021</v>
       </c>
     </row>
     <row r="19" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
-        <v>51011201</v>
+        <v>1010022</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1">
-        <v>61012201</v>
+        <v>1110022</v>
       </c>
       <c r="F19" s="1">
-        <v>61012201</v>
+        <v>1110022</v>
       </c>
       <c r="G19" s="1">
-        <v>61011201</v>
+        <v>1110022</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>1110022</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>1110022</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1110022</v>
       </c>
     </row>
     <row r="20" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
-        <v>51011202</v>
+        <v>1010023</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1">
-        <v>61012202</v>
+        <v>1110023</v>
       </c>
       <c r="F20" s="1">
-        <v>61012202</v>
+        <v>1110023</v>
       </c>
       <c r="G20" s="1">
-        <v>61011202</v>
+        <v>1110023</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>1110023</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>1110023</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1110023</v>
       </c>
     </row>
     <row r="21" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
-        <v>51011203</v>
+        <v>1010024</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E21" s="1">
-        <v>61012203</v>
+        <v>1110024</v>
       </c>
       <c r="F21" s="1">
-        <v>61012203</v>
+        <v>1110024</v>
       </c>
       <c r="G21" s="1">
-        <v>61011203</v>
+        <v>1110024</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>1110024</v>
       </c>
       <c r="I21" s="1">
-        <v>0</v>
+        <v>1110024</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1110024</v>
       </c>
     </row>
     <row r="22" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
-        <v>51011204</v>
+        <v>1010025</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E22" s="1">
-        <v>61012204</v>
+        <v>1110025</v>
       </c>
       <c r="F22" s="1">
-        <v>61012204</v>
+        <v>1110025</v>
       </c>
       <c r="G22" s="1">
-        <v>61011204</v>
+        <v>1110025</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>1110025</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>1110025</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1110025</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
-        <v>51011205</v>
+        <v>1010026</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E23" s="1">
-        <v>61012205</v>
+        <v>1110026</v>
       </c>
       <c r="F23" s="1">
-        <v>61012205</v>
+        <v>1110026</v>
       </c>
       <c r="G23" s="1">
-        <v>61011205</v>
+        <v>1110026</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>1110026</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>1110026</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1110026</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
-        <v>51011206</v>
+        <v>1010031</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E24" s="1">
-        <v>61012206</v>
+        <v>1110031</v>
       </c>
       <c r="F24" s="1">
-        <v>61012206</v>
+        <v>1110031</v>
       </c>
       <c r="G24" s="1">
-        <v>61011206</v>
+        <v>1110031</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <v>1110031</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>1110031</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>1110031</v>
       </c>
     </row>
     <row r="25" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
-        <v>51011301</v>
+        <v>1010032</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" s="1">
-        <v>61012301</v>
+        <v>1110032</v>
       </c>
       <c r="F25" s="1">
-        <v>61012301</v>
+        <v>1110032</v>
       </c>
       <c r="G25" s="1">
-        <v>61011301</v>
+        <v>1110032</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>1110032</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>1110032</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>1110032</v>
       </c>
     </row>
     <row r="26" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
-        <v>51011302</v>
+        <v>1010033</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" s="1">
-        <v>61012302</v>
+        <v>1110033</v>
       </c>
       <c r="F26" s="1">
-        <v>61012302</v>
+        <v>1110033</v>
       </c>
       <c r="G26" s="1">
-        <v>61011302</v>
+        <v>1110033</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>1110033</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>1110033</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1110033</v>
       </c>
     </row>
     <row r="27" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
-        <v>51011303</v>
+        <v>1010034</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" s="1">
-        <v>61012303</v>
+        <v>1110034</v>
       </c>
       <c r="F27" s="1">
-        <v>61012303</v>
+        <v>1110034</v>
       </c>
       <c r="G27" s="1">
-        <v>61011303</v>
+        <v>1110034</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <v>1110034</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>1110034</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>1110034</v>
       </c>
     </row>
     <row r="28" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
+        <v>1010035</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1110035</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1110035</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1110035</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1110035</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1110035</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1110035</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="1">
+        <v>1010036</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1110036</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1110036</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1110036</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1110036</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1110036</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1110036</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="3">
+        <v>50000101</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="3">
+        <v>60000201</v>
+      </c>
+      <c r="F30" s="3">
+        <v>60000201</v>
+      </c>
+      <c r="G30" s="3">
+        <v>60000101</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="3">
+        <v>50000102</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="3">
+        <v>60000202</v>
+      </c>
+      <c r="F31" s="3">
+        <v>60000202</v>
+      </c>
+      <c r="G31" s="3">
+        <v>60000102</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="3">
+        <v>50000103</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="3">
+        <v>60000203</v>
+      </c>
+      <c r="F32" s="3">
+        <v>60000203</v>
+      </c>
+      <c r="G32" s="3">
+        <v>60000103</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="3">
+        <v>50000201</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="3">
+        <v>60000301</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>60000301</v>
+      </c>
+      <c r="I33" s="3">
+        <v>60000401</v>
+      </c>
+      <c r="J33" s="3">
+        <v>60000401</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="3">
+        <v>50000202</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="3">
+        <v>60000302</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>60000302</v>
+      </c>
+      <c r="I34" s="3">
+        <v>60000402</v>
+      </c>
+      <c r="J34" s="3">
+        <v>60000402</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="3">
+        <v>50000301</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="3">
+        <v>60000501</v>
+      </c>
+      <c r="F35" s="3">
+        <v>60000201</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>60000501</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="3">
+        <v>50000302</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="3">
+        <v>60000502</v>
+      </c>
+      <c r="F36" s="3">
+        <v>60000202</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>60000502</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="3">
+        <v>51011101</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="3">
+        <v>61012101</v>
+      </c>
+      <c r="F37" s="3">
+        <v>61012101</v>
+      </c>
+      <c r="G37" s="3">
+        <v>61011101</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="3">
+        <v>51011102</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="3">
+        <v>61012102</v>
+      </c>
+      <c r="F38" s="3">
+        <v>61012102</v>
+      </c>
+      <c r="G38" s="3">
+        <v>61011102</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="3">
+        <v>51011103</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="3">
+        <v>61012103</v>
+      </c>
+      <c r="F39" s="3">
+        <v>61012103</v>
+      </c>
+      <c r="G39" s="3">
+        <v>61011103</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="3">
+        <v>51011104</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="3">
+        <v>61012104</v>
+      </c>
+      <c r="F40" s="3">
+        <v>61012104</v>
+      </c>
+      <c r="G40" s="3">
+        <v>61011104</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="3">
+        <v>51011105</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="3">
+        <v>61012105</v>
+      </c>
+      <c r="F41" s="3">
+        <v>61012105</v>
+      </c>
+      <c r="G41" s="3">
+        <v>61011105</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="3">
+        <v>51011106</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="3">
+        <v>61012106</v>
+      </c>
+      <c r="F42" s="3">
+        <v>61012106</v>
+      </c>
+      <c r="G42" s="3">
+        <v>61011106</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="3">
+        <v>51011201</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="3">
+        <v>61012201</v>
+      </c>
+      <c r="F43" s="3">
+        <v>61012201</v>
+      </c>
+      <c r="G43" s="3">
+        <v>61011201</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="3">
+        <v>51011202</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="3">
+        <v>61012202</v>
+      </c>
+      <c r="F44" s="3">
+        <v>61012202</v>
+      </c>
+      <c r="G44" s="3">
+        <v>61011202</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="3">
+        <v>51011203</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="3">
+        <v>61012203</v>
+      </c>
+      <c r="F45" s="3">
+        <v>61012203</v>
+      </c>
+      <c r="G45" s="3">
+        <v>61011203</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="3">
+        <v>51011204</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="3">
+        <v>61012204</v>
+      </c>
+      <c r="F46" s="3">
+        <v>61012204</v>
+      </c>
+      <c r="G46" s="3">
+        <v>61011204</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="3">
+        <v>51011205</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="3">
+        <v>61012205</v>
+      </c>
+      <c r="F47" s="3">
+        <v>61012205</v>
+      </c>
+      <c r="G47" s="3">
+        <v>61011205</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="3">
+        <v>51011206</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="3">
+        <v>61012206</v>
+      </c>
+      <c r="F48" s="3">
+        <v>61012206</v>
+      </c>
+      <c r="G48" s="3">
+        <v>61011206</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="3">
+        <v>51011301</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="3">
+        <v>61012301</v>
+      </c>
+      <c r="F49" s="3">
+        <v>61012301</v>
+      </c>
+      <c r="G49" s="3">
+        <v>61011301</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="3">
+        <v>51011302</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="3">
+        <v>61012302</v>
+      </c>
+      <c r="F50" s="3">
+        <v>61012302</v>
+      </c>
+      <c r="G50" s="3">
+        <v>61011302</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="3">
+        <v>51011303</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="3">
+        <v>61012303</v>
+      </c>
+      <c r="F51" s="3">
+        <v>61012303</v>
+      </c>
+      <c r="G51" s="3">
+        <v>61011303</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="3">
         <v>51011304</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D52" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E52" s="3">
         <v>61012304</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F52" s="3">
         <v>61012304</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G52" s="3">
         <v>61011304</v>
       </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="1">
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="3">
         <v>51011305</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D53" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E53" s="3">
         <v>61012305</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F53" s="3">
         <v>61012305</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G53" s="3">
         <v>61011305</v>
       </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="1">
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="3">
         <v>51011306</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E54" s="3">
         <v>61012306</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F54" s="3">
         <v>61012306</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G54" s="3">
         <v>61011306</v>
       </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="1">
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="3">
         <v>52011101</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D55" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E55" s="3">
         <v>62011101</v>
       </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
         <v>62011101</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I55" s="3">
         <v>62011201</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J55" s="3">
         <v>62011201</v>
       </c>
     </row>
-    <row r="32" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="1">
+    <row r="56" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="3">
         <v>52011102</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D56" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E56" s="3">
         <v>62011102</v>
       </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
         <v>62011102</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I56" s="3">
         <v>62011202</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J56" s="3">
         <v>62011202</v>
       </c>
     </row>
-    <row r="33" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="1">
+    <row r="57" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="3">
         <v>52011103</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D57" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E57" s="3">
         <v>62011103</v>
       </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>62011103</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I57" s="3">
         <v>62011203</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J57" s="3">
         <v>62011203</v>
       </c>
     </row>
-    <row r="34" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="1">
+    <row r="58" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="3">
         <v>52011104</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D58" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E58" s="3">
         <v>62011104</v>
       </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>62011104</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I58" s="3">
         <v>62011204</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J58" s="3">
         <v>62011204</v>
       </c>
     </row>
-    <row r="35" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="1">
+    <row r="59" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="3">
         <v>52011105</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D59" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E59" s="3">
         <v>62011105</v>
       </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>62011105</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I59" s="3">
         <v>62011205</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J59" s="3">
         <v>62011205</v>
       </c>
     </row>
-    <row r="36" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="1">
+    <row r="60" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="3">
         <v>52011106</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D60" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E60" s="3">
         <v>62011106</v>
       </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
         <v>62011106</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I60" s="3">
         <v>62011206</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J60" s="3">
         <v>62011206</v>
       </c>
     </row>
-    <row r="37" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="1">
+    <row r="61" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="3">
         <v>52011201</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D61" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E61" s="3">
         <v>62011301</v>
       </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>62011301</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I61" s="3">
         <v>62012101</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J61" s="3">
         <v>62012101</v>
       </c>
     </row>
-    <row r="38" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="1">
+    <row r="62" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="3">
         <v>52011202</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D62" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E62" s="3">
         <v>62011302</v>
       </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>62011302</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I62" s="3">
         <v>62012102</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J62" s="3">
         <v>62012102</v>
       </c>
     </row>
-    <row r="39" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="1">
+    <row r="63" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="3">
         <v>52011203</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D63" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E63" s="3">
         <v>62011303</v>
       </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
         <v>62011303</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I63" s="3">
         <v>62012103</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J63" s="3">
         <v>62012103</v>
       </c>
     </row>
-    <row r="40" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="1">
+    <row r="64" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="3">
         <v>52011204</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D64" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E64" s="3">
         <v>62011304</v>
       </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3">
         <v>62011304</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I64" s="3">
         <v>62012104</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J64" s="3">
         <v>62012104</v>
       </c>
     </row>
-    <row r="41" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="1">
+    <row r="65" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="3">
         <v>52011205</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D65" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E65" s="3">
         <v>62011305</v>
       </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
         <v>62011305</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I65" s="3">
         <v>62012105</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J65" s="3">
         <v>62012105</v>
       </c>
     </row>
-    <row r="42" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="1">
+    <row r="66" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="3">
         <v>52011206</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D66" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E66" s="3">
         <v>62011306</v>
       </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
         <v>62011306</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I66" s="3">
         <v>62012106</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J66" s="3">
         <v>62012106</v>
       </c>
     </row>
-    <row r="43" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="1">
+    <row r="67" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="3">
         <v>52011301</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D67" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E67" s="3">
         <v>62012201</v>
       </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1">
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3">
         <v>62012201</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I67" s="3">
         <v>62012301</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J67" s="3">
         <v>62012301</v>
       </c>
     </row>
-    <row r="44" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="1">
+    <row r="68" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="3">
         <v>52011302</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D68" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E68" s="3">
         <v>62012202</v>
       </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
+      <c r="F68" s="3">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3">
         <v>62012202</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I68" s="3">
         <v>62012302</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J68" s="3">
         <v>62012302</v>
       </c>
     </row>
-    <row r="45" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="1">
+    <row r="69" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="3">
         <v>52011303</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D69" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E69" s="3">
         <v>62012203</v>
       </c>
-      <c r="F45" s="1">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
+      <c r="F69" s="3">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+      <c r="H69" s="3">
         <v>62012203</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I69" s="3">
         <v>62012303</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J69" s="3">
         <v>62012303</v>
       </c>
     </row>
-    <row r="46" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="1">
+    <row r="70" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="3">
         <v>52011304</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D70" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E70" s="3">
         <v>62012204</v>
       </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>62012204</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I70" s="3">
         <v>62012304</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J70" s="3">
         <v>62012304</v>
       </c>
     </row>
-    <row r="47" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="1">
+    <row r="71" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="3">
         <v>52011305</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D71" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E71" s="3">
         <v>62012205</v>
       </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3">
         <v>62012205</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I71" s="3">
         <v>62012305</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J71" s="3">
         <v>62012305</v>
       </c>
     </row>
-    <row r="48" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="1">
+    <row r="72" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="3">
         <v>52011306</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D72" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E72" s="3">
         <v>62012206</v>
       </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1">
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
         <v>62012206</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I72" s="3">
         <v>62012306</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J72" s="3">
         <v>62012306</v>
       </c>
     </row>
-    <row r="49" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="1">
+    <row r="73" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="3">
         <v>53011101</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D73" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E73" s="3">
         <v>63011101</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F73" s="3">
         <v>63011201</v>
       </c>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0</v>
-      </c>
-      <c r="J49" s="1">
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0</v>
+      </c>
+      <c r="I73" s="3">
+        <v>0</v>
+      </c>
+      <c r="J73" s="3">
         <v>63011101</v>
       </c>
     </row>
-    <row r="50" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="1">
+    <row r="74" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="3">
         <v>53011102</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D74" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E74" s="3">
         <v>63011102</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F74" s="3">
         <v>63011202</v>
       </c>
-      <c r="G50" s="1">
-        <v>0</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0</v>
-      </c>
-      <c r="J50" s="1">
+      <c r="G74" s="3">
+        <v>0</v>
+      </c>
+      <c r="H74" s="3">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0</v>
+      </c>
+      <c r="J74" s="3">
         <v>63011102</v>
       </c>
     </row>
-    <row r="51" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="1">
+    <row r="75" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="3">
         <v>53011103</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D75" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E75" s="3">
         <v>63011103</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F75" s="3">
         <v>63011203</v>
       </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0</v>
-      </c>
-      <c r="J51" s="1">
+      <c r="G75" s="3">
+        <v>0</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0</v>
+      </c>
+      <c r="J75" s="3">
         <v>63011103</v>
       </c>
     </row>
-    <row r="52" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="1">
+    <row r="76" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="3">
         <v>53011104</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E76" s="3">
         <v>63011104</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F76" s="3">
         <v>63011204</v>
       </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0</v>
-      </c>
-      <c r="J52" s="1">
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>63011104</v>
       </c>
     </row>
-    <row r="53" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="1">
+    <row r="77" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="3">
         <v>53011105</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D77" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E77" s="3">
         <v>63011105</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F77" s="3">
         <v>63011205</v>
       </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0</v>
-      </c>
-      <c r="J53" s="1">
+      <c r="G77" s="3">
+        <v>0</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
         <v>63011105</v>
       </c>
     </row>
-    <row r="54" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="1">
+    <row r="78" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="3">
         <v>53011106</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D78" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E78" s="3">
         <v>63011106</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F78" s="3">
         <v>63011206</v>
       </c>
-      <c r="G54" s="1">
-        <v>0</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0</v>
-      </c>
-      <c r="J54" s="1">
+      <c r="G78" s="3">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0</v>
+      </c>
+      <c r="J78" s="3">
         <v>63011106</v>
       </c>
     </row>
-    <row r="55" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="1">
+    <row r="79" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="3">
         <v>53011201</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D79" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E79" s="3">
         <v>63011301</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F79" s="3">
         <v>63012101</v>
       </c>
-      <c r="G55" s="1">
-        <v>0</v>
-      </c>
-      <c r="H55" s="1">
-        <v>0</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
-      <c r="J55" s="1">
+      <c r="G79" s="3">
+        <v>0</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0</v>
+      </c>
+      <c r="I79" s="3">
+        <v>0</v>
+      </c>
+      <c r="J79" s="3">
         <v>63011301</v>
       </c>
     </row>
-    <row r="56" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="1">
+    <row r="80" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="3">
         <v>53011202</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D80" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E80" s="3">
         <v>63011302</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F80" s="3">
         <v>63012102</v>
       </c>
-      <c r="G56" s="1">
-        <v>0</v>
-      </c>
-      <c r="H56" s="1">
-        <v>0</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
-      <c r="J56" s="1">
+      <c r="G80" s="3">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3">
+        <v>0</v>
+      </c>
+      <c r="I80" s="3">
+        <v>0</v>
+      </c>
+      <c r="J80" s="3">
         <v>63011302</v>
       </c>
     </row>
-    <row r="57" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="1">
+    <row r="81" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="3">
         <v>53011203</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D81" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E81" s="3">
         <v>63011303</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F81" s="3">
         <v>63012103</v>
       </c>
-      <c r="G57" s="1">
-        <v>0</v>
-      </c>
-      <c r="H57" s="1">
-        <v>0</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0</v>
-      </c>
-      <c r="J57" s="1">
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>63011303</v>
       </c>
     </row>
-    <row r="58" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="1">
+    <row r="82" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="3">
         <v>53011204</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D82" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E82" s="3">
         <v>63011304</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F82" s="3">
         <v>63012104</v>
       </c>
-      <c r="G58" s="1">
-        <v>0</v>
-      </c>
-      <c r="H58" s="1">
-        <v>0</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
-      <c r="J58" s="1">
+      <c r="G82" s="3">
+        <v>0</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0</v>
+      </c>
+      <c r="I82" s="3">
+        <v>0</v>
+      </c>
+      <c r="J82" s="3">
         <v>63011304</v>
       </c>
     </row>
-    <row r="59" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="1">
+    <row r="83" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="3">
         <v>53011205</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D83" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E83" s="3">
         <v>63011305</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F83" s="3">
         <v>63012105</v>
       </c>
-      <c r="G59" s="1">
-        <v>0</v>
-      </c>
-      <c r="H59" s="1">
-        <v>0</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0</v>
-      </c>
-      <c r="J59" s="1">
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>63011305</v>
       </c>
     </row>
-    <row r="60" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="1">
+    <row r="84" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="3">
         <v>53011206</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D84" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E84" s="3">
         <v>63011306</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F84" s="3">
         <v>63012106</v>
       </c>
-      <c r="G60" s="1">
-        <v>0</v>
-      </c>
-      <c r="H60" s="1">
-        <v>0</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0</v>
-      </c>
-      <c r="J60" s="1">
+      <c r="G84" s="3">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3">
+        <v>0</v>
+      </c>
+      <c r="I84" s="3">
+        <v>0</v>
+      </c>
+      <c r="J84" s="3">
         <v>63011306</v>
       </c>
     </row>
-    <row r="61" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="1">
+    <row r="85" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="3">
         <v>53011301</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D85" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E85" s="3">
         <v>63012201</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F85" s="3">
         <v>63012301</v>
       </c>
-      <c r="G61" s="1">
-        <v>0</v>
-      </c>
-      <c r="H61" s="1">
-        <v>0</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0</v>
-      </c>
-      <c r="J61" s="1">
+      <c r="G85" s="3">
+        <v>0</v>
+      </c>
+      <c r="H85" s="3">
+        <v>0</v>
+      </c>
+      <c r="I85" s="3">
+        <v>0</v>
+      </c>
+      <c r="J85" s="3">
         <v>63012201</v>
       </c>
     </row>
-    <row r="62" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="1">
+    <row r="86" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="3">
         <v>53011302</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D86" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E86" s="3">
         <v>63012202</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F86" s="3">
         <v>63012302</v>
       </c>
-      <c r="G62" s="1">
-        <v>0</v>
-      </c>
-      <c r="H62" s="1">
-        <v>0</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0</v>
-      </c>
-      <c r="J62" s="1">
+      <c r="G86" s="3">
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
+        <v>0</v>
+      </c>
+      <c r="I86" s="3">
+        <v>0</v>
+      </c>
+      <c r="J86" s="3">
         <v>63012202</v>
       </c>
     </row>
-    <row r="63" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="1">
+    <row r="87" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="3">
         <v>53011303</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D87" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E87" s="3">
         <v>63012203</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F87" s="3">
         <v>63012303</v>
       </c>
-      <c r="G63" s="1">
-        <v>0</v>
-      </c>
-      <c r="H63" s="1">
-        <v>0</v>
-      </c>
-      <c r="I63" s="1">
-        <v>0</v>
-      </c>
-      <c r="J63" s="1">
+      <c r="G87" s="3">
+        <v>0</v>
+      </c>
+      <c r="H87" s="3">
+        <v>0</v>
+      </c>
+      <c r="I87" s="3">
+        <v>0</v>
+      </c>
+      <c r="J87" s="3">
         <v>63012203</v>
       </c>
     </row>
-    <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="1">
+    <row r="88" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C88" s="3">
         <v>53011304</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D88" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E88" s="3">
         <v>63012204</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F88" s="3">
         <v>63012304</v>
       </c>
-      <c r="G64" s="1">
-        <v>0</v>
-      </c>
-      <c r="H64" s="1">
-        <v>0</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0</v>
-      </c>
-      <c r="J64" s="1">
+      <c r="G88" s="3">
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3">
+        <v>0</v>
+      </c>
+      <c r="J88" s="3">
         <v>63012204</v>
       </c>
     </row>
-    <row r="65" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="1">
+    <row r="89" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="3">
         <v>53011305</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D89" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E89" s="3">
         <v>63012205</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F89" s="3">
         <v>63012305</v>
       </c>
-      <c r="G65" s="1">
-        <v>0</v>
-      </c>
-      <c r="H65" s="1">
-        <v>0</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0</v>
-      </c>
-      <c r="J65" s="1">
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>63012205</v>
       </c>
     </row>
-    <row r="66" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="1">
+    <row r="90" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C90" s="3">
         <v>53011306</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D90" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E90" s="3">
         <v>63012206</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F90" s="3">
         <v>63012306</v>
       </c>
-      <c r="G66" s="1">
-        <v>0</v>
-      </c>
-      <c r="H66" s="1">
-        <v>0</v>
-      </c>
-      <c r="I66" s="1">
-        <v>0</v>
-      </c>
-      <c r="J66" s="1">
+      <c r="G90" s="3">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3">
+        <v>0</v>
+      </c>
+      <c r="J90" s="3">
         <v>63012206</v>
       </c>
     </row>
-    <row r="67" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="97" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="99" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2195,8 +2816,32 @@
     <row r="110" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="111" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="112" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Unity/Assets/Config/Excel/SkillWeaponConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillWeaponConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A489EB-96DB-4276-B4E0-641B220CDD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848F9310-5F9F-42F8-B5A2-9E1123054050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillWeaponConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +154,13 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -201,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -214,6 +221,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -489,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:J136"/>
+  <dimension ref="C1:J139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1208,151 +1218,151 @@
         <v>1110036</v>
       </c>
     </row>
-    <row r="30" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="3">
-        <v>50000101</v>
-      </c>
-      <c r="D30" s="3" t="s">
+    <row r="30" spans="3:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="6">
+        <v>1200001</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="3">
-        <v>60000201</v>
-      </c>
-      <c r="F30" s="3">
-        <v>60000201</v>
-      </c>
-      <c r="G30" s="3">
-        <v>60000101</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="3">
-        <v>50000102</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="E30" s="6">
+        <v>1200001</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1200001</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1200001</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="6">
+        <v>1200001</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="3">
-        <v>60000202</v>
-      </c>
-      <c r="F31" s="3">
-        <v>60000202</v>
-      </c>
-      <c r="G31" s="3">
-        <v>60000102</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="3">
-        <v>50000103</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="E31" s="6">
+        <v>1200001</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1200001</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1200001</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="6">
+        <v>1200001</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="3">
-        <v>60000203</v>
-      </c>
-      <c r="F32" s="3">
-        <v>60000203</v>
-      </c>
-      <c r="G32" s="3">
-        <v>60000103</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="E32" s="6">
+        <v>1200001</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1200001</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1200001</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="3">
-        <v>50000201</v>
+        <v>50000101</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="3">
-        <v>60000301</v>
+        <v>60000201</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>60000201</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>60000101</v>
       </c>
       <c r="H33" s="3">
-        <v>60000301</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>60000401</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>60000401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="3">
-        <v>50000202</v>
+        <v>50000102</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="3">
-        <v>60000302</v>
+        <v>60000202</v>
       </c>
       <c r="F34" s="3">
-        <v>0</v>
+        <v>60000202</v>
       </c>
       <c r="G34" s="3">
-        <v>0</v>
+        <v>60000102</v>
       </c>
       <c r="H34" s="3">
-        <v>60000302</v>
+        <v>0</v>
       </c>
       <c r="I34" s="3">
-        <v>60000402</v>
+        <v>0</v>
       </c>
       <c r="J34" s="3">
-        <v>60000402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="3">
-        <v>50000301</v>
+        <v>50000103</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="3">
-        <v>60000501</v>
+        <v>60000203</v>
       </c>
       <c r="F35" s="3">
-        <v>60000201</v>
+        <v>60000203</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>60000103</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -1361,76 +1371,76 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>60000501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="3">
-        <v>50000302</v>
+        <v>50000201</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="3">
-        <v>60000502</v>
+        <v>60000301</v>
       </c>
       <c r="F36" s="3">
-        <v>60000202</v>
+        <v>0</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
       </c>
       <c r="H36" s="3">
-        <v>0</v>
+        <v>60000301</v>
       </c>
       <c r="I36" s="3">
-        <v>0</v>
+        <v>60000401</v>
       </c>
       <c r="J36" s="3">
-        <v>60000502</v>
+        <v>60000401</v>
       </c>
     </row>
     <row r="37" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="3">
-        <v>51011101</v>
+        <v>50000202</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" s="3">
-        <v>61012101</v>
+        <v>60000302</v>
       </c>
       <c r="F37" s="3">
-        <v>61012101</v>
+        <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>61011101</v>
+        <v>0</v>
       </c>
       <c r="H37" s="3">
-        <v>0</v>
+        <v>60000302</v>
       </c>
       <c r="I37" s="3">
-        <v>0</v>
+        <v>60000402</v>
       </c>
       <c r="J37" s="3">
-        <v>0</v>
+        <v>60000402</v>
       </c>
     </row>
     <row r="38" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="3">
-        <v>51011102</v>
+        <v>50000301</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" s="3">
-        <v>61012102</v>
+        <v>60000501</v>
       </c>
       <c r="F38" s="3">
-        <v>61012102</v>
+        <v>60000201</v>
       </c>
       <c r="G38" s="3">
-        <v>61011102</v>
+        <v>0</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -1439,24 +1449,24 @@
         <v>0</v>
       </c>
       <c r="J38" s="3">
-        <v>0</v>
+        <v>60000501</v>
       </c>
     </row>
     <row r="39" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="3">
-        <v>51011103</v>
+        <v>50000302</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39" s="3">
-        <v>61012103</v>
+        <v>60000502</v>
       </c>
       <c r="F39" s="3">
-        <v>61012103</v>
+        <v>60000202</v>
       </c>
       <c r="G39" s="3">
-        <v>61011103</v>
+        <v>0</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -1465,24 +1475,24 @@
         <v>0</v>
       </c>
       <c r="J39" s="3">
-        <v>0</v>
+        <v>60000502</v>
       </c>
     </row>
     <row r="40" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="3">
-        <v>51011104</v>
+        <v>51011101</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="3">
-        <v>61012104</v>
+        <v>61012101</v>
       </c>
       <c r="F40" s="3">
-        <v>61012104</v>
+        <v>61012101</v>
       </c>
       <c r="G40" s="3">
-        <v>61011104</v>
+        <v>61011101</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -1496,19 +1506,19 @@
     </row>
     <row r="41" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="3">
-        <v>51011105</v>
+        <v>51011102</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E41" s="3">
-        <v>61012105</v>
+        <v>61012102</v>
       </c>
       <c r="F41" s="3">
-        <v>61012105</v>
+        <v>61012102</v>
       </c>
       <c r="G41" s="3">
-        <v>61011105</v>
+        <v>61011102</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1522,19 +1532,19 @@
     </row>
     <row r="42" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="3">
-        <v>51011106</v>
+        <v>51011103</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E42" s="3">
-        <v>61012106</v>
+        <v>61012103</v>
       </c>
       <c r="F42" s="3">
-        <v>61012106</v>
+        <v>61012103</v>
       </c>
       <c r="G42" s="3">
-        <v>61011106</v>
+        <v>61011103</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1548,19 +1558,19 @@
     </row>
     <row r="43" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="3">
-        <v>51011201</v>
+        <v>51011104</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" s="3">
-        <v>61012201</v>
+        <v>61012104</v>
       </c>
       <c r="F43" s="3">
-        <v>61012201</v>
+        <v>61012104</v>
       </c>
       <c r="G43" s="3">
-        <v>61011201</v>
+        <v>61011104</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -1574,19 +1584,19 @@
     </row>
     <row r="44" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="3">
-        <v>51011202</v>
+        <v>51011105</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44" s="3">
-        <v>61012202</v>
+        <v>61012105</v>
       </c>
       <c r="F44" s="3">
-        <v>61012202</v>
+        <v>61012105</v>
       </c>
       <c r="G44" s="3">
-        <v>61011202</v>
+        <v>61011105</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -1600,19 +1610,19 @@
     </row>
     <row r="45" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="3">
-        <v>51011203</v>
+        <v>51011106</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E45" s="3">
-        <v>61012203</v>
+        <v>61012106</v>
       </c>
       <c r="F45" s="3">
-        <v>61012203</v>
+        <v>61012106</v>
       </c>
       <c r="G45" s="3">
-        <v>61011203</v>
+        <v>61011106</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -1626,19 +1636,19 @@
     </row>
     <row r="46" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="3">
-        <v>51011204</v>
+        <v>51011201</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E46" s="3">
-        <v>61012204</v>
+        <v>61012201</v>
       </c>
       <c r="F46" s="3">
-        <v>61012204</v>
+        <v>61012201</v>
       </c>
       <c r="G46" s="3">
-        <v>61011204</v>
+        <v>61011201</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -1650,21 +1660,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="3">
-        <v>51011205</v>
+        <v>51011202</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E47" s="3">
-        <v>61012205</v>
+        <v>61012202</v>
       </c>
       <c r="F47" s="3">
-        <v>61012205</v>
+        <v>61012202</v>
       </c>
       <c r="G47" s="3">
-        <v>61011205</v>
+        <v>61011202</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -1676,21 +1686,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="3">
-        <v>51011206</v>
+        <v>51011203</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E48" s="3">
-        <v>61012206</v>
+        <v>61012203</v>
       </c>
       <c r="F48" s="3">
-        <v>61012206</v>
+        <v>61012203</v>
       </c>
       <c r="G48" s="3">
-        <v>61011206</v>
+        <v>61011203</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -1704,19 +1714,19 @@
     </row>
     <row r="49" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="3">
-        <v>51011301</v>
+        <v>51011204</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E49" s="3">
-        <v>61012301</v>
+        <v>61012204</v>
       </c>
       <c r="F49" s="3">
-        <v>61012301</v>
+        <v>61012204</v>
       </c>
       <c r="G49" s="3">
-        <v>61011301</v>
+        <v>61011204</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -1728,21 +1738,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="3">
-        <v>51011302</v>
+        <v>51011205</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E50" s="3">
-        <v>61012302</v>
+        <v>61012205</v>
       </c>
       <c r="F50" s="3">
-        <v>61012302</v>
+        <v>61012205</v>
       </c>
       <c r="G50" s="3">
-        <v>61011302</v>
+        <v>61011205</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
@@ -1754,21 +1764,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="3">
-        <v>51011303</v>
+        <v>51011206</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" s="3">
-        <v>61012303</v>
+        <v>61012206</v>
       </c>
       <c r="F51" s="3">
-        <v>61012303</v>
+        <v>61012206</v>
       </c>
       <c r="G51" s="3">
-        <v>61011303</v>
+        <v>61011206</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
@@ -1782,19 +1792,19 @@
     </row>
     <row r="52" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="3">
-        <v>51011304</v>
+        <v>51011301</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="3">
-        <v>61012304</v>
+        <v>61012301</v>
       </c>
       <c r="F52" s="3">
-        <v>61012304</v>
+        <v>61012301</v>
       </c>
       <c r="G52" s="3">
-        <v>61011304</v>
+        <v>61011301</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -1806,21 +1816,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="3">
-        <v>51011305</v>
+        <v>51011302</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="3">
-        <v>61012305</v>
+        <v>61012302</v>
       </c>
       <c r="F53" s="3">
-        <v>61012305</v>
+        <v>61012302</v>
       </c>
       <c r="G53" s="3">
-        <v>61011305</v>
+        <v>61011302</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -1832,21 +1842,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="3">
-        <v>51011306</v>
+        <v>51011303</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="3">
-        <v>61012306</v>
+        <v>61012303</v>
       </c>
       <c r="F54" s="3">
-        <v>61012306</v>
+        <v>61012303</v>
       </c>
       <c r="G54" s="3">
-        <v>61011306</v>
+        <v>61011303</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -1858,93 +1868,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="3">
-        <v>52011101</v>
+        <v>51011304</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E55" s="3">
-        <v>62011101</v>
+        <v>61012304</v>
       </c>
       <c r="F55" s="3">
-        <v>0</v>
+        <v>61012304</v>
       </c>
       <c r="G55" s="3">
-        <v>0</v>
+        <v>61011304</v>
       </c>
       <c r="H55" s="3">
-        <v>62011101</v>
+        <v>0</v>
       </c>
       <c r="I55" s="3">
-        <v>62011201</v>
+        <v>0</v>
       </c>
       <c r="J55" s="3">
-        <v>62011201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="3">
-        <v>52011102</v>
+        <v>51011305</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E56" s="3">
-        <v>62011102</v>
+        <v>61012305</v>
       </c>
       <c r="F56" s="3">
-        <v>0</v>
+        <v>61012305</v>
       </c>
       <c r="G56" s="3">
-        <v>0</v>
+        <v>61011305</v>
       </c>
       <c r="H56" s="3">
-        <v>62011102</v>
+        <v>0</v>
       </c>
       <c r="I56" s="3">
-        <v>62011202</v>
+        <v>0</v>
       </c>
       <c r="J56" s="3">
-        <v>62011202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="3">
-        <v>52011103</v>
+        <v>51011306</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E57" s="3">
-        <v>62011103</v>
+        <v>61012306</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>61012306</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>61011306</v>
       </c>
       <c r="H57" s="3">
-        <v>62011103</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>62011203</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>62011203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="3">
-        <v>52011104</v>
+        <v>52011101</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E58" s="3">
-        <v>62011104</v>
+        <v>62011101</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -1953,24 +1963,24 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>62011104</v>
+        <v>62011101</v>
       </c>
       <c r="I58" s="3">
-        <v>62011204</v>
+        <v>62011201</v>
       </c>
       <c r="J58" s="3">
-        <v>62011204</v>
+        <v>62011201</v>
       </c>
     </row>
     <row r="59" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="3">
-        <v>52011105</v>
+        <v>52011102</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E59" s="3">
-        <v>62011105</v>
+        <v>62011102</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -1979,24 +1989,24 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>62011105</v>
+        <v>62011102</v>
       </c>
       <c r="I59" s="3">
-        <v>62011205</v>
+        <v>62011202</v>
       </c>
       <c r="J59" s="3">
-        <v>62011205</v>
+        <v>62011202</v>
       </c>
     </row>
     <row r="60" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="3">
-        <v>52011106</v>
+        <v>52011103</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E60" s="3">
-        <v>62011106</v>
+        <v>62011103</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -2005,24 +2015,24 @@
         <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>62011106</v>
+        <v>62011103</v>
       </c>
       <c r="I60" s="3">
-        <v>62011206</v>
+        <v>62011203</v>
       </c>
       <c r="J60" s="3">
-        <v>62011206</v>
+        <v>62011203</v>
       </c>
     </row>
     <row r="61" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="3">
-        <v>52011201</v>
+        <v>52011104</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E61" s="3">
-        <v>62011301</v>
+        <v>62011104</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2031,24 +2041,24 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>62011301</v>
+        <v>62011104</v>
       </c>
       <c r="I61" s="3">
-        <v>62012101</v>
+        <v>62011204</v>
       </c>
       <c r="J61" s="3">
-        <v>62012101</v>
+        <v>62011204</v>
       </c>
     </row>
     <row r="62" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="3">
-        <v>52011202</v>
+        <v>52011105</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E62" s="3">
-        <v>62011302</v>
+        <v>62011105</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2057,24 +2067,24 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>62011302</v>
+        <v>62011105</v>
       </c>
       <c r="I62" s="3">
-        <v>62012102</v>
+        <v>62011205</v>
       </c>
       <c r="J62" s="3">
-        <v>62012102</v>
+        <v>62011205</v>
       </c>
     </row>
     <row r="63" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="3">
-        <v>52011203</v>
+        <v>52011106</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E63" s="3">
-        <v>62011303</v>
+        <v>62011106</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -2083,24 +2093,24 @@
         <v>0</v>
       </c>
       <c r="H63" s="3">
-        <v>62011303</v>
+        <v>62011106</v>
       </c>
       <c r="I63" s="3">
-        <v>62012103</v>
+        <v>62011206</v>
       </c>
       <c r="J63" s="3">
-        <v>62012103</v>
+        <v>62011206</v>
       </c>
     </row>
     <row r="64" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="3">
-        <v>52011204</v>
+        <v>52011201</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E64" s="3">
-        <v>62011304</v>
+        <v>62011301</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -2109,24 +2119,24 @@
         <v>0</v>
       </c>
       <c r="H64" s="3">
-        <v>62011304</v>
+        <v>62011301</v>
       </c>
       <c r="I64" s="3">
-        <v>62012104</v>
+        <v>62012101</v>
       </c>
       <c r="J64" s="3">
-        <v>62012104</v>
+        <v>62012101</v>
       </c>
     </row>
     <row r="65" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="3">
-        <v>52011205</v>
+        <v>52011202</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E65" s="3">
-        <v>62011305</v>
+        <v>62011302</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -2135,24 +2145,24 @@
         <v>0</v>
       </c>
       <c r="H65" s="3">
-        <v>62011305</v>
+        <v>62011302</v>
       </c>
       <c r="I65" s="3">
-        <v>62012105</v>
+        <v>62012102</v>
       </c>
       <c r="J65" s="3">
-        <v>62012105</v>
+        <v>62012102</v>
       </c>
     </row>
     <row r="66" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="3">
-        <v>52011206</v>
+        <v>52011203</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E66" s="3">
-        <v>62011306</v>
+        <v>62011303</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2161,24 +2171,24 @@
         <v>0</v>
       </c>
       <c r="H66" s="3">
-        <v>62011306</v>
+        <v>62011303</v>
       </c>
       <c r="I66" s="3">
-        <v>62012106</v>
+        <v>62012103</v>
       </c>
       <c r="J66" s="3">
-        <v>62012106</v>
+        <v>62012103</v>
       </c>
     </row>
     <row r="67" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="3">
-        <v>52011301</v>
+        <v>52011204</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E67" s="3">
-        <v>62012201</v>
+        <v>62011304</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
@@ -2187,24 +2197,24 @@
         <v>0</v>
       </c>
       <c r="H67" s="3">
-        <v>62012201</v>
+        <v>62011304</v>
       </c>
       <c r="I67" s="3">
-        <v>62012301</v>
+        <v>62012104</v>
       </c>
       <c r="J67" s="3">
-        <v>62012301</v>
+        <v>62012104</v>
       </c>
     </row>
     <row r="68" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="3">
-        <v>52011302</v>
+        <v>52011205</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E68" s="3">
-        <v>62012202</v>
+        <v>62011305</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -2213,24 +2223,24 @@
         <v>0</v>
       </c>
       <c r="H68" s="3">
-        <v>62012202</v>
+        <v>62011305</v>
       </c>
       <c r="I68" s="3">
-        <v>62012302</v>
+        <v>62012105</v>
       </c>
       <c r="J68" s="3">
-        <v>62012302</v>
+        <v>62012105</v>
       </c>
     </row>
     <row r="69" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="3">
-        <v>52011303</v>
+        <v>52011206</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E69" s="3">
-        <v>62012203</v>
+        <v>62011306</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
@@ -2239,24 +2249,24 @@
         <v>0</v>
       </c>
       <c r="H69" s="3">
-        <v>62012203</v>
+        <v>62011306</v>
       </c>
       <c r="I69" s="3">
-        <v>62012303</v>
+        <v>62012106</v>
       </c>
       <c r="J69" s="3">
-        <v>62012303</v>
+        <v>62012106</v>
       </c>
     </row>
     <row r="70" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="3">
-        <v>52011304</v>
+        <v>52011301</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E70" s="3">
-        <v>62012204</v>
+        <v>62012201</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2265,24 +2275,24 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>62012204</v>
+        <v>62012201</v>
       </c>
       <c r="I70" s="3">
-        <v>62012304</v>
+        <v>62012301</v>
       </c>
       <c r="J70" s="3">
-        <v>62012304</v>
+        <v>62012301</v>
       </c>
     </row>
     <row r="71" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="3">
-        <v>52011305</v>
+        <v>52011302</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E71" s="3">
-        <v>62012205</v>
+        <v>62012202</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
@@ -2291,24 +2301,24 @@
         <v>0</v>
       </c>
       <c r="H71" s="3">
-        <v>62012205</v>
+        <v>62012202</v>
       </c>
       <c r="I71" s="3">
-        <v>62012305</v>
+        <v>62012302</v>
       </c>
       <c r="J71" s="3">
-        <v>62012305</v>
+        <v>62012302</v>
       </c>
     </row>
     <row r="72" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="3">
-        <v>52011306</v>
+        <v>52011303</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E72" s="3">
-        <v>62012206</v>
+        <v>62012203</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -2317,105 +2327,105 @@
         <v>0</v>
       </c>
       <c r="H72" s="3">
-        <v>62012206</v>
+        <v>62012203</v>
       </c>
       <c r="I72" s="3">
-        <v>62012306</v>
+        <v>62012303</v>
       </c>
       <c r="J72" s="3">
-        <v>62012306</v>
+        <v>62012303</v>
       </c>
     </row>
     <row r="73" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="3">
-        <v>53011101</v>
+        <v>52011304</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E73" s="3">
-        <v>63011101</v>
+        <v>62012204</v>
       </c>
       <c r="F73" s="3">
-        <v>63011201</v>
+        <v>0</v>
       </c>
       <c r="G73" s="3">
         <v>0</v>
       </c>
       <c r="H73" s="3">
-        <v>0</v>
+        <v>62012204</v>
       </c>
       <c r="I73" s="3">
-        <v>0</v>
+        <v>62012304</v>
       </c>
       <c r="J73" s="3">
-        <v>63011101</v>
+        <v>62012304</v>
       </c>
     </row>
     <row r="74" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="3">
-        <v>53011102</v>
+        <v>52011305</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E74" s="3">
-        <v>63011102</v>
+        <v>62012205</v>
       </c>
       <c r="F74" s="3">
-        <v>63011202</v>
+        <v>0</v>
       </c>
       <c r="G74" s="3">
         <v>0</v>
       </c>
       <c r="H74" s="3">
-        <v>0</v>
+        <v>62012205</v>
       </c>
       <c r="I74" s="3">
-        <v>0</v>
+        <v>62012305</v>
       </c>
       <c r="J74" s="3">
-        <v>63011102</v>
+        <v>62012305</v>
       </c>
     </row>
     <row r="75" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="3">
-        <v>53011103</v>
+        <v>52011306</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E75" s="3">
-        <v>63011103</v>
+        <v>62012206</v>
       </c>
       <c r="F75" s="3">
-        <v>63011203</v>
+        <v>0</v>
       </c>
       <c r="G75" s="3">
         <v>0</v>
       </c>
       <c r="H75" s="3">
-        <v>0</v>
+        <v>62012206</v>
       </c>
       <c r="I75" s="3">
-        <v>0</v>
+        <v>62012306</v>
       </c>
       <c r="J75" s="3">
-        <v>63011103</v>
+        <v>62012306</v>
       </c>
     </row>
     <row r="76" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="3">
-        <v>53011104</v>
+        <v>53011101</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E76" s="3">
-        <v>63011104</v>
+        <v>63011101</v>
       </c>
       <c r="F76" s="3">
-        <v>63011204</v>
+        <v>63011201</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -2427,21 +2437,21 @@
         <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>63011104</v>
+        <v>63011101</v>
       </c>
     </row>
     <row r="77" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="3">
-        <v>53011105</v>
+        <v>53011102</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E77" s="3">
-        <v>63011105</v>
+        <v>63011102</v>
       </c>
       <c r="F77" s="3">
-        <v>63011205</v>
+        <v>63011202</v>
       </c>
       <c r="G77" s="3">
         <v>0</v>
@@ -2453,21 +2463,21 @@
         <v>0</v>
       </c>
       <c r="J77" s="3">
-        <v>63011105</v>
+        <v>63011102</v>
       </c>
     </row>
     <row r="78" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="3">
-        <v>53011106</v>
+        <v>53011103</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E78" s="3">
-        <v>63011106</v>
+        <v>63011103</v>
       </c>
       <c r="F78" s="3">
-        <v>63011206</v>
+        <v>63011203</v>
       </c>
       <c r="G78" s="3">
         <v>0</v>
@@ -2479,21 +2489,21 @@
         <v>0</v>
       </c>
       <c r="J78" s="3">
-        <v>63011106</v>
+        <v>63011103</v>
       </c>
     </row>
     <row r="79" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="3">
-        <v>53011201</v>
+        <v>53011104</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E79" s="3">
-        <v>63011301</v>
+        <v>63011104</v>
       </c>
       <c r="F79" s="3">
-        <v>63012101</v>
+        <v>63011204</v>
       </c>
       <c r="G79" s="3">
         <v>0</v>
@@ -2505,21 +2515,21 @@
         <v>0</v>
       </c>
       <c r="J79" s="3">
-        <v>63011301</v>
+        <v>63011104</v>
       </c>
     </row>
     <row r="80" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="3">
-        <v>53011202</v>
+        <v>53011105</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E80" s="3">
-        <v>63011302</v>
+        <v>63011105</v>
       </c>
       <c r="F80" s="3">
-        <v>63012102</v>
+        <v>63011205</v>
       </c>
       <c r="G80" s="3">
         <v>0</v>
@@ -2531,21 +2541,21 @@
         <v>0</v>
       </c>
       <c r="J80" s="3">
-        <v>63011302</v>
+        <v>63011105</v>
       </c>
     </row>
     <row r="81" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="3">
-        <v>53011203</v>
+        <v>53011106</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E81" s="3">
-        <v>63011303</v>
+        <v>63011106</v>
       </c>
       <c r="F81" s="3">
-        <v>63012103</v>
+        <v>63011206</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -2557,21 +2567,21 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>63011303</v>
+        <v>63011106</v>
       </c>
     </row>
     <row r="82" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="3">
-        <v>53011204</v>
+        <v>53011201</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E82" s="3">
-        <v>63011304</v>
+        <v>63011301</v>
       </c>
       <c r="F82" s="3">
-        <v>63012104</v>
+        <v>63012101</v>
       </c>
       <c r="G82" s="3">
         <v>0</v>
@@ -2583,21 +2593,21 @@
         <v>0</v>
       </c>
       <c r="J82" s="3">
-        <v>63011304</v>
+        <v>63011301</v>
       </c>
     </row>
     <row r="83" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="3">
-        <v>53011205</v>
+        <v>53011202</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E83" s="3">
-        <v>63011305</v>
+        <v>63011302</v>
       </c>
       <c r="F83" s="3">
-        <v>63012105</v>
+        <v>63012102</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -2609,21 +2619,21 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>63011305</v>
+        <v>63011302</v>
       </c>
     </row>
     <row r="84" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="3">
-        <v>53011206</v>
+        <v>53011203</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E84" s="3">
-        <v>63011306</v>
+        <v>63011303</v>
       </c>
       <c r="F84" s="3">
-        <v>63012106</v>
+        <v>63012103</v>
       </c>
       <c r="G84" s="3">
         <v>0</v>
@@ -2635,21 +2645,21 @@
         <v>0</v>
       </c>
       <c r="J84" s="3">
-        <v>63011306</v>
+        <v>63011303</v>
       </c>
     </row>
     <row r="85" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="3">
-        <v>53011301</v>
+        <v>53011204</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E85" s="3">
-        <v>63012201</v>
+        <v>63011304</v>
       </c>
       <c r="F85" s="3">
-        <v>63012301</v>
+        <v>63012104</v>
       </c>
       <c r="G85" s="3">
         <v>0</v>
@@ -2661,21 +2671,21 @@
         <v>0</v>
       </c>
       <c r="J85" s="3">
-        <v>63012201</v>
+        <v>63011304</v>
       </c>
     </row>
     <row r="86" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="3">
-        <v>53011302</v>
+        <v>53011205</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E86" s="3">
-        <v>63012202</v>
+        <v>63011305</v>
       </c>
       <c r="F86" s="3">
-        <v>63012302</v>
+        <v>63012105</v>
       </c>
       <c r="G86" s="3">
         <v>0</v>
@@ -2687,21 +2697,21 @@
         <v>0</v>
       </c>
       <c r="J86" s="3">
-        <v>63012202</v>
+        <v>63011305</v>
       </c>
     </row>
     <row r="87" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="3">
-        <v>53011303</v>
+        <v>53011206</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E87" s="3">
-        <v>63012203</v>
+        <v>63011306</v>
       </c>
       <c r="F87" s="3">
-        <v>63012303</v>
+        <v>63012106</v>
       </c>
       <c r="G87" s="3">
         <v>0</v>
@@ -2713,21 +2723,21 @@
         <v>0</v>
       </c>
       <c r="J87" s="3">
-        <v>63012203</v>
+        <v>63011306</v>
       </c>
     </row>
     <row r="88" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="3">
-        <v>53011304</v>
+        <v>53011301</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E88" s="3">
-        <v>63012204</v>
+        <v>63012201</v>
       </c>
       <c r="F88" s="3">
-        <v>63012304</v>
+        <v>63012301</v>
       </c>
       <c r="G88" s="3">
         <v>0</v>
@@ -2739,21 +2749,21 @@
         <v>0</v>
       </c>
       <c r="J88" s="3">
-        <v>63012204</v>
+        <v>63012201</v>
       </c>
     </row>
     <row r="89" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="3">
-        <v>53011305</v>
+        <v>53011302</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E89" s="3">
-        <v>63012205</v>
+        <v>63012202</v>
       </c>
       <c r="F89" s="3">
-        <v>63012305</v>
+        <v>63012302</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -2765,38 +2775,113 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>63012205</v>
+        <v>63012202</v>
       </c>
     </row>
     <row r="90" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="3">
-        <v>53011306</v>
+        <v>53011303</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E90" s="3">
+        <v>63012203</v>
+      </c>
+      <c r="F90" s="3">
+        <v>63012303</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3">
+        <v>0</v>
+      </c>
+      <c r="J90" s="3">
+        <v>63012203</v>
+      </c>
+    </row>
+    <row r="91" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C91" s="3">
+        <v>53011304</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="3">
+        <v>63012204</v>
+      </c>
+      <c r="F91" s="3">
+        <v>63012304</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>63012204</v>
+      </c>
+    </row>
+    <row r="92" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C92" s="3">
+        <v>53011305</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="3">
+        <v>63012205</v>
+      </c>
+      <c r="F92" s="3">
+        <v>63012305</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3">
+        <v>0</v>
+      </c>
+      <c r="I92" s="3">
+        <v>0</v>
+      </c>
+      <c r="J92" s="3">
+        <v>63012205</v>
+      </c>
+    </row>
+    <row r="93" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C93" s="3">
+        <v>53011306</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="3">
         <v>63012206</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F93" s="3">
         <v>63012306</v>
       </c>
-      <c r="G90" s="3">
-        <v>0</v>
-      </c>
-      <c r="H90" s="3">
-        <v>0</v>
-      </c>
-      <c r="I90" s="3">
-        <v>0</v>
-      </c>
-      <c r="J90" s="3">
+      <c r="G93" s="3">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
+        <v>0</v>
+      </c>
+      <c r="I93" s="3">
+        <v>0</v>
+      </c>
+      <c r="J93" s="3">
         <v>63012206</v>
       </c>
     </row>
-    <row r="91" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="94" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="96" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2840,6 +2925,9 @@
     <row r="134" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="135" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/SkillWeaponConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillWeaponConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848F9310-5F9F-42F8-B5A2-9E1123054050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5A8E22-776A-4B96-AD3E-72593A329F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillWeaponConfig" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
   <dimension ref="C1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD32"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="31" spans="3:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="6">
-        <v>1200001</v>
+        <v>1200002</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>17</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="32" spans="3:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="6">
-        <v>1200001</v>
+        <v>1200003</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>17</v>

--- a/Unity/Assets/Config/Excel/SkillWeaponConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillWeaponConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5A8E22-776A-4B96-AD3E-72593A329F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0383D72-7219-45B1-8A40-A221F2646212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillWeaponConfig" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
   <dimension ref="C1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -611,10 +611,10 @@
         <v>1110001</v>
       </c>
       <c r="H6" s="1">
-        <v>1110001</v>
+        <v>1120001</v>
       </c>
       <c r="I6" s="1">
-        <v>1110001</v>
+        <v>1120001</v>
       </c>
       <c r="J6" s="1">
         <v>1110001</v>
@@ -637,10 +637,10 @@
         <v>1110002</v>
       </c>
       <c r="H7" s="1">
-        <v>1110002</v>
+        <v>1120002</v>
       </c>
       <c r="I7" s="1">
-        <v>1110002</v>
+        <v>1120002</v>
       </c>
       <c r="J7" s="1">
         <v>1110002</v>
@@ -663,10 +663,10 @@
         <v>1110003</v>
       </c>
       <c r="H8" s="1">
-        <v>1110003</v>
+        <v>1120003</v>
       </c>
       <c r="I8" s="1">
-        <v>1110003</v>
+        <v>1120003</v>
       </c>
       <c r="J8" s="1">
         <v>1110003</v>
@@ -689,10 +689,10 @@
         <v>1110004</v>
       </c>
       <c r="H9" s="1">
-        <v>1110004</v>
+        <v>1120004</v>
       </c>
       <c r="I9" s="1">
-        <v>1110004</v>
+        <v>1120004</v>
       </c>
       <c r="J9" s="1">
         <v>1110004</v>
@@ -715,10 +715,10 @@
         <v>1110005</v>
       </c>
       <c r="H10" s="1">
-        <v>1110005</v>
+        <v>1120005</v>
       </c>
       <c r="I10" s="1">
-        <v>1110005</v>
+        <v>1120005</v>
       </c>
       <c r="J10" s="1">
         <v>1110005</v>
@@ -741,10 +741,10 @@
         <v>1110006</v>
       </c>
       <c r="H11" s="1">
-        <v>1110006</v>
+        <v>1120006</v>
       </c>
       <c r="I11" s="1">
-        <v>1110006</v>
+        <v>1120006</v>
       </c>
       <c r="J11" s="1">
         <v>1110006</v>
@@ -767,10 +767,10 @@
         <v>1110011</v>
       </c>
       <c r="H12" s="1">
-        <v>1110011</v>
+        <v>1120011</v>
       </c>
       <c r="I12" s="1">
-        <v>1110011</v>
+        <v>1120011</v>
       </c>
       <c r="J12" s="1">
         <v>1110011</v>
@@ -793,10 +793,10 @@
         <v>1110012</v>
       </c>
       <c r="H13" s="1">
-        <v>1110012</v>
+        <v>1120012</v>
       </c>
       <c r="I13" s="1">
-        <v>1110012</v>
+        <v>1120012</v>
       </c>
       <c r="J13" s="1">
         <v>1110012</v>
@@ -819,10 +819,10 @@
         <v>1110013</v>
       </c>
       <c r="H14" s="1">
-        <v>1110013</v>
+        <v>1120013</v>
       </c>
       <c r="I14" s="1">
-        <v>1110013</v>
+        <v>1120013</v>
       </c>
       <c r="J14" s="1">
         <v>1110013</v>
@@ -845,10 +845,10 @@
         <v>1110014</v>
       </c>
       <c r="H15" s="1">
-        <v>1110014</v>
+        <v>1120014</v>
       </c>
       <c r="I15" s="1">
-        <v>1110014</v>
+        <v>1120014</v>
       </c>
       <c r="J15" s="1">
         <v>1110014</v>
@@ -871,10 +871,10 @@
         <v>1110015</v>
       </c>
       <c r="H16" s="1">
-        <v>1110015</v>
+        <v>1120015</v>
       </c>
       <c r="I16" s="1">
-        <v>1110015</v>
+        <v>1120015</v>
       </c>
       <c r="J16" s="1">
         <v>1110015</v>
@@ -897,10 +897,10 @@
         <v>1110016</v>
       </c>
       <c r="H17" s="1">
-        <v>1110016</v>
+        <v>1120016</v>
       </c>
       <c r="I17" s="1">
-        <v>1110016</v>
+        <v>1120016</v>
       </c>
       <c r="J17" s="1">
         <v>1110016</v>
@@ -923,10 +923,10 @@
         <v>1110021</v>
       </c>
       <c r="H18" s="1">
-        <v>1110021</v>
+        <v>1120021</v>
       </c>
       <c r="I18" s="1">
-        <v>1110021</v>
+        <v>1120021</v>
       </c>
       <c r="J18" s="1">
         <v>1110021</v>
@@ -949,10 +949,10 @@
         <v>1110022</v>
       </c>
       <c r="H19" s="1">
-        <v>1110022</v>
+        <v>1120022</v>
       </c>
       <c r="I19" s="1">
-        <v>1110022</v>
+        <v>1120022</v>
       </c>
       <c r="J19" s="1">
         <v>1110022</v>
@@ -975,10 +975,10 @@
         <v>1110023</v>
       </c>
       <c r="H20" s="1">
-        <v>1110023</v>
+        <v>1120023</v>
       </c>
       <c r="I20" s="1">
-        <v>1110023</v>
+        <v>1120023</v>
       </c>
       <c r="J20" s="1">
         <v>1110023</v>
@@ -1001,10 +1001,10 @@
         <v>1110024</v>
       </c>
       <c r="H21" s="1">
-        <v>1110024</v>
+        <v>1120024</v>
       </c>
       <c r="I21" s="1">
-        <v>1110024</v>
+        <v>1120024</v>
       </c>
       <c r="J21" s="1">
         <v>1110024</v>
@@ -1027,10 +1027,10 @@
         <v>1110025</v>
       </c>
       <c r="H22" s="1">
-        <v>1110025</v>
+        <v>1120025</v>
       </c>
       <c r="I22" s="1">
-        <v>1110025</v>
+        <v>1120025</v>
       </c>
       <c r="J22" s="1">
         <v>1110025</v>
@@ -1053,10 +1053,10 @@
         <v>1110026</v>
       </c>
       <c r="H23" s="1">
-        <v>1110026</v>
+        <v>1120026</v>
       </c>
       <c r="I23" s="1">
-        <v>1110026</v>
+        <v>1120026</v>
       </c>
       <c r="J23" s="1">
         <v>1110026</v>
@@ -1079,10 +1079,10 @@
         <v>1110031</v>
       </c>
       <c r="H24" s="1">
-        <v>1110031</v>
+        <v>1120031</v>
       </c>
       <c r="I24" s="1">
-        <v>1110031</v>
+        <v>1120031</v>
       </c>
       <c r="J24" s="1">
         <v>1110031</v>
@@ -1105,10 +1105,10 @@
         <v>1110032</v>
       </c>
       <c r="H25" s="1">
-        <v>1110032</v>
+        <v>1120032</v>
       </c>
       <c r="I25" s="1">
-        <v>1110032</v>
+        <v>1120032</v>
       </c>
       <c r="J25" s="1">
         <v>1110032</v>
@@ -1131,10 +1131,10 @@
         <v>1110033</v>
       </c>
       <c r="H26" s="1">
-        <v>1110033</v>
+        <v>1120033</v>
       </c>
       <c r="I26" s="1">
-        <v>1110033</v>
+        <v>1120033</v>
       </c>
       <c r="J26" s="1">
         <v>1110033</v>
@@ -1157,10 +1157,10 @@
         <v>1110034</v>
       </c>
       <c r="H27" s="1">
-        <v>1110034</v>
+        <v>1120034</v>
       </c>
       <c r="I27" s="1">
-        <v>1110034</v>
+        <v>1120034</v>
       </c>
       <c r="J27" s="1">
         <v>1110034</v>
@@ -1183,10 +1183,10 @@
         <v>1110035</v>
       </c>
       <c r="H28" s="1">
-        <v>1110035</v>
+        <v>1120035</v>
       </c>
       <c r="I28" s="1">
-        <v>1110035</v>
+        <v>1120035</v>
       </c>
       <c r="J28" s="1">
         <v>1110035</v>
@@ -1209,10 +1209,10 @@
         <v>1110036</v>
       </c>
       <c r="H29" s="1">
-        <v>1110036</v>
+        <v>1120036</v>
       </c>
       <c r="I29" s="1">
-        <v>1110036</v>
+        <v>1120036</v>
       </c>
       <c r="J29" s="1">
         <v>1110036</v>

--- a/Unity/Assets/Config/Excel/SkillWeaponConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillWeaponConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0383D72-7219-45B1-8A40-A221F2646212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DC28C7-22B0-4FAB-8C14-8585E9A52EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,7 +502,7 @@
   <dimension ref="C1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="J30" sqref="J30:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1235,13 +1235,13 @@
         <v>1200001</v>
       </c>
       <c r="H30" s="6">
-        <v>0</v>
+        <v>1200101</v>
       </c>
       <c r="I30" s="6">
-        <v>0</v>
+        <v>1200101</v>
       </c>
       <c r="J30" s="6">
-        <v>0</v>
+        <v>1200101</v>
       </c>
     </row>
     <row r="31" spans="3:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1261,13 +1261,13 @@
         <v>1200001</v>
       </c>
       <c r="H31" s="6">
-        <v>0</v>
+        <v>1200101</v>
       </c>
       <c r="I31" s="6">
-        <v>0</v>
+        <v>1200101</v>
       </c>
       <c r="J31" s="6">
-        <v>0</v>
+        <v>1200101</v>
       </c>
     </row>
     <row r="32" spans="3:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1287,13 +1287,13 @@
         <v>1200001</v>
       </c>
       <c r="H32" s="6">
-        <v>0</v>
+        <v>1200101</v>
       </c>
       <c r="I32" s="6">
-        <v>0</v>
+        <v>1200101</v>
       </c>
       <c r="J32" s="6">
-        <v>0</v>
+        <v>1200101</v>
       </c>
     </row>
     <row r="33" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">

--- a/Unity/Assets/Config/Excel/SkillWeaponConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillWeaponConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DC28C7-22B0-4FAB-8C14-8585E9A52EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F31102-232B-48D9-ABCE-0FA49A44C154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>旋风击</t>
+  </si>
+  <si>
+    <t>冰封冲击</t>
+  </si>
+  <si>
+    <t>破冰飞弹</t>
+  </si>
+  <si>
+    <t>圣御之击</t>
+  </si>
+  <si>
+    <t>巨岩震击</t>
   </si>
 </sst>
 </file>
@@ -499,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:J139"/>
+  <dimension ref="C1:J163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:J32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1218,1296 +1230,1296 @@
         <v>1110036</v>
       </c>
     </row>
-    <row r="30" spans="3:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="6">
+    <row r="30" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="1">
+        <v>1020001</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1120001</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1110001</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1110001</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1120001</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1120001</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1110001</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="1">
+        <v>1020002</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1120002</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1110002</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1110002</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1120002</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1120002</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1110002</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="1">
+        <v>1020003</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1120003</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1110003</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1110003</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1120003</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1120003</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1110003</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="1">
+        <v>1020004</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1120004</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1110004</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1110004</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1120004</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1120004</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1110004</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="1">
+        <v>1020005</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1120005</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1110005</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1110005</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1120005</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1120005</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1110005</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="1">
+        <v>1020006</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1120006</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1110006</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1110006</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1120006</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1120006</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1110006</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="1">
+        <v>1020011</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1120011</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1110011</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1110011</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1120011</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1120011</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1110011</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="1">
+        <v>1020012</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1120012</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1110012</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1110012</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1120012</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1120012</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1110012</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="1">
+        <v>1020013</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1120013</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1110013</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1110013</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1120013</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1120013</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1110013</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="1">
+        <v>1020014</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1120014</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1110014</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1110014</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1120014</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1120014</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1110014</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="1">
+        <v>1020015</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1120015</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1110015</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1110015</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1120015</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1120015</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1110015</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="1">
+        <v>1020016</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1120016</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1110016</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1110016</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1120016</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1120016</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1110016</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="1">
+        <v>1020021</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1120021</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1110021</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1110021</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1120021</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1120021</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1110021</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="1">
+        <v>1020022</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1120022</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1110022</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1110022</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1120022</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1120022</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1110022</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="1">
+        <v>1020023</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1120023</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1110023</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1110023</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1120023</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1120023</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1110023</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="1">
+        <v>1020024</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1120024</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1110024</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1110024</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1120024</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1120024</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1110024</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="1">
+        <v>1020025</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1120025</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1110025</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1110025</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1120025</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1120025</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1110025</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="1">
+        <v>1020026</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1120026</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1110026</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1110026</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1120026</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1120026</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1110026</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="1">
+        <v>1020031</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1120031</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1110031</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1110031</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1120031</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1120031</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1110031</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="1">
+        <v>1020032</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1120032</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1110032</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1110032</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1120032</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1120032</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1110032</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="1">
+        <v>1020033</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1120033</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1110033</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1110033</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1120033</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1120033</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1110033</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="1">
+        <v>1020034</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1120034</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1110034</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1110034</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1120034</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1120034</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1110034</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="1">
+        <v>1020035</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1120035</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1110035</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1110035</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1120035</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1120035</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1110035</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="1">
+        <v>1020036</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1120036</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1110036</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1110036</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1120036</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1120036</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1110036</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="6">
         <v>1200001</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E54" s="6">
         <v>1200001</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F54" s="6">
         <v>1200001</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G54" s="6">
         <v>1200001</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H54" s="6">
         <v>1200101</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I54" s="6">
         <v>1200101</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J54" s="6">
         <v>1200101</v>
       </c>
     </row>
-    <row r="31" spans="3:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="6">
+    <row r="55" spans="3:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="6">
         <v>1200002</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E55" s="6">
         <v>1200001</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F55" s="6">
         <v>1200001</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G55" s="6">
         <v>1200001</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H55" s="6">
         <v>1200101</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I55" s="6">
         <v>1200101</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J55" s="6">
         <v>1200101</v>
       </c>
     </row>
-    <row r="32" spans="3:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="6">
+    <row r="56" spans="3:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="6">
         <v>1200003</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E56" s="6">
         <v>1200001</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F56" s="6">
         <v>1200001</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G56" s="6">
         <v>1200001</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H56" s="6">
         <v>1200101</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I56" s="6">
         <v>1200101</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J56" s="6">
         <v>1200101</v>
       </c>
     </row>
-    <row r="33" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="3">
+    <row r="57" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="3">
         <v>50000101</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E57" s="3">
         <v>60000201</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F57" s="3">
         <v>60000201</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G57" s="3">
         <v>60000101</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="3">
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="3">
         <v>50000102</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E58" s="3">
         <v>60000202</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F58" s="3">
         <v>60000202</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G58" s="3">
         <v>60000102</v>
       </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="3">
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="3">
         <v>50000103</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E59" s="3">
         <v>60000203</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F59" s="3">
         <v>60000203</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G59" s="3">
         <v>60000103</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="3">
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="3">
         <v>50000201</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E60" s="3">
         <v>60000301</v>
       </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
         <v>60000301</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I60" s="3">
         <v>60000401</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J60" s="3">
         <v>60000401</v>
       </c>
     </row>
-    <row r="37" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="3">
+    <row r="61" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="3">
         <v>50000202</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E61" s="3">
         <v>60000302</v>
       </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>60000302</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I61" s="3">
         <v>60000402</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J61" s="3">
         <v>60000402</v>
       </c>
     </row>
-    <row r="38" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="3">
+    <row r="62" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="3">
         <v>50000301</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E62" s="3">
         <v>60000501</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F62" s="3">
         <v>60000201</v>
       </c>
-      <c r="G38" s="3">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3">
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>60000501</v>
       </c>
     </row>
-    <row r="39" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="3">
+    <row r="63" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="3">
         <v>50000302</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E63" s="3">
         <v>60000502</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F63" s="3">
         <v>60000202</v>
       </c>
-      <c r="G39" s="3">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3">
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+      <c r="J63" s="3">
         <v>60000502</v>
       </c>
     </row>
-    <row r="40" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="3">
+    <row r="64" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="3">
         <v>51011101</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E64" s="3">
         <v>61012101</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F64" s="3">
         <v>61012101</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G64" s="3">
         <v>61011101</v>
       </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="3">
+      <c r="H64" s="3">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="3">
         <v>51011102</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E65" s="3">
         <v>61012102</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F65" s="3">
         <v>61012102</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G65" s="3">
         <v>61011102</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="3">
+      <c r="H65" s="3">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="3">
         <v>51011103</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E66" s="3">
         <v>61012103</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F66" s="3">
         <v>61012103</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G66" s="3">
         <v>61011103</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="3">
+      <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="3">
         <v>51011104</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E67" s="3">
         <v>61012104</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F67" s="3">
         <v>61012104</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G67" s="3">
         <v>61011104</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="3">
+      <c r="H67" s="3">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="3">
         <v>51011105</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E68" s="3">
         <v>61012105</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F68" s="3">
         <v>61012105</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G68" s="3">
         <v>61011105</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="3">
+      <c r="H68" s="3">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3">
+        <v>0</v>
+      </c>
+      <c r="J68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="3">
         <v>51011106</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E69" s="3">
         <v>61012106</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F69" s="3">
         <v>61012106</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G69" s="3">
         <v>61011106</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="3">
+      <c r="H69" s="3">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0</v>
+      </c>
+      <c r="J69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="3">
         <v>51011201</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E70" s="3">
         <v>61012201</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F70" s="3">
         <v>61012201</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G70" s="3">
         <v>61011201</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="3">
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="3">
         <v>51011202</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E71" s="3">
         <v>61012202</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F71" s="3">
         <v>61012202</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G71" s="3">
         <v>61011202</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="3">
+      <c r="H71" s="3">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="3">
         <v>51011203</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E72" s="3">
         <v>61012203</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F72" s="3">
         <v>61012203</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G72" s="3">
         <v>61011203</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="3">
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="3">
         <v>51011204</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E73" s="3">
         <v>61012204</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F73" s="3">
         <v>61012204</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G73" s="3">
         <v>61011204</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="3">
+      <c r="H73" s="3">
+        <v>0</v>
+      </c>
+      <c r="I73" s="3">
+        <v>0</v>
+      </c>
+      <c r="J73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="3">
         <v>51011205</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E74" s="3">
         <v>61012205</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F74" s="3">
         <v>61012205</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G74" s="3">
         <v>61011205</v>
       </c>
-      <c r="H50" s="3">
-        <v>0</v>
-      </c>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
-      <c r="J50" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="3">
+      <c r="H74" s="3">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0</v>
+      </c>
+      <c r="J74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="3">
         <v>51011206</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E75" s="3">
         <v>61012206</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F75" s="3">
         <v>61012206</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G75" s="3">
         <v>61011206</v>
       </c>
-      <c r="H51" s="3">
-        <v>0</v>
-      </c>
-      <c r="I51" s="3">
-        <v>0</v>
-      </c>
-      <c r="J51" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="3">
+      <c r="H75" s="3">
+        <v>0</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="3">
         <v>51011301</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E76" s="3">
         <v>61012301</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F76" s="3">
         <v>61012301</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G76" s="3">
         <v>61011301</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="3">
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="3">
         <v>51011302</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E77" s="3">
         <v>61012302</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F77" s="3">
         <v>61012302</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G77" s="3">
         <v>61011302</v>
       </c>
-      <c r="H53" s="3">
-        <v>0</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0</v>
-      </c>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="3">
+      <c r="H77" s="3">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="3">
         <v>51011303</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E78" s="3">
         <v>61012303</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F78" s="3">
         <v>61012303</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G78" s="3">
         <v>61011303</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="3">
+      <c r="H78" s="3">
+        <v>0</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0</v>
+      </c>
+      <c r="J78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="3">
         <v>51011304</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E79" s="3">
         <v>61012304</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F79" s="3">
         <v>61012304</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G79" s="3">
         <v>61011304</v>
       </c>
-      <c r="H55" s="3">
-        <v>0</v>
-      </c>
-      <c r="I55" s="3">
-        <v>0</v>
-      </c>
-      <c r="J55" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="3">
-        <v>51011305</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" s="3">
-        <v>61012305</v>
-      </c>
-      <c r="F56" s="3">
-        <v>61012305</v>
-      </c>
-      <c r="G56" s="3">
-        <v>61011305</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0</v>
-      </c>
-      <c r="I56" s="3">
-        <v>0</v>
-      </c>
-      <c r="J56" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="3">
-        <v>51011306</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="3">
-        <v>61012306</v>
-      </c>
-      <c r="F57" s="3">
-        <v>61012306</v>
-      </c>
-      <c r="G57" s="3">
-        <v>61011306</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="3">
-        <v>52011101</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="3">
-        <v>62011101</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>62011101</v>
-      </c>
-      <c r="I58" s="3">
-        <v>62011201</v>
-      </c>
-      <c r="J58" s="3">
-        <v>62011201</v>
-      </c>
-    </row>
-    <row r="59" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="3">
-        <v>52011102</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" s="3">
-        <v>62011102</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>62011102</v>
-      </c>
-      <c r="I59" s="3">
-        <v>62011202</v>
-      </c>
-      <c r="J59" s="3">
-        <v>62011202</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="3">
-        <v>52011103</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="3">
-        <v>62011103</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>62011103</v>
-      </c>
-      <c r="I60" s="3">
-        <v>62011203</v>
-      </c>
-      <c r="J60" s="3">
-        <v>62011203</v>
-      </c>
-    </row>
-    <row r="61" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="3">
-        <v>52011104</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="3">
-        <v>62011104</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>62011104</v>
-      </c>
-      <c r="I61" s="3">
-        <v>62011204</v>
-      </c>
-      <c r="J61" s="3">
-        <v>62011204</v>
-      </c>
-    </row>
-    <row r="62" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="3">
-        <v>52011105</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="3">
-        <v>62011105</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>62011105</v>
-      </c>
-      <c r="I62" s="3">
-        <v>62011205</v>
-      </c>
-      <c r="J62" s="3">
-        <v>62011205</v>
-      </c>
-    </row>
-    <row r="63" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="3">
-        <v>52011106</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" s="3">
-        <v>62011106</v>
-      </c>
-      <c r="F63" s="3">
-        <v>0</v>
-      </c>
-      <c r="G63" s="3">
-        <v>0</v>
-      </c>
-      <c r="H63" s="3">
-        <v>62011106</v>
-      </c>
-      <c r="I63" s="3">
-        <v>62011206</v>
-      </c>
-      <c r="J63" s="3">
-        <v>62011206</v>
-      </c>
-    </row>
-    <row r="64" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="3">
-        <v>52011201</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" s="3">
-        <v>62011301</v>
-      </c>
-      <c r="F64" s="3">
-        <v>0</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0</v>
-      </c>
-      <c r="H64" s="3">
-        <v>62011301</v>
-      </c>
-      <c r="I64" s="3">
-        <v>62012101</v>
-      </c>
-      <c r="J64" s="3">
-        <v>62012101</v>
-      </c>
-    </row>
-    <row r="65" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="3">
-        <v>52011202</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E65" s="3">
-        <v>62011302</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
-      <c r="H65" s="3">
-        <v>62011302</v>
-      </c>
-      <c r="I65" s="3">
-        <v>62012102</v>
-      </c>
-      <c r="J65" s="3">
-        <v>62012102</v>
-      </c>
-    </row>
-    <row r="66" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="3">
-        <v>52011203</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" s="3">
-        <v>62011303</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>62011303</v>
-      </c>
-      <c r="I66" s="3">
-        <v>62012103</v>
-      </c>
-      <c r="J66" s="3">
-        <v>62012103</v>
-      </c>
-    </row>
-    <row r="67" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="3">
-        <v>52011204</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" s="3">
-        <v>62011304</v>
-      </c>
-      <c r="F67" s="3">
-        <v>0</v>
-      </c>
-      <c r="G67" s="3">
-        <v>0</v>
-      </c>
-      <c r="H67" s="3">
-        <v>62011304</v>
-      </c>
-      <c r="I67" s="3">
-        <v>62012104</v>
-      </c>
-      <c r="J67" s="3">
-        <v>62012104</v>
-      </c>
-    </row>
-    <row r="68" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="3">
-        <v>52011205</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="3">
-        <v>62011305</v>
-      </c>
-      <c r="F68" s="3">
-        <v>0</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0</v>
-      </c>
-      <c r="H68" s="3">
-        <v>62011305</v>
-      </c>
-      <c r="I68" s="3">
-        <v>62012105</v>
-      </c>
-      <c r="J68" s="3">
-        <v>62012105</v>
-      </c>
-    </row>
-    <row r="69" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="3">
-        <v>52011206</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="3">
-        <v>62011306</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0</v>
-      </c>
-      <c r="G69" s="3">
-        <v>0</v>
-      </c>
-      <c r="H69" s="3">
-        <v>62011306</v>
-      </c>
-      <c r="I69" s="3">
-        <v>62012106</v>
-      </c>
-      <c r="J69" s="3">
-        <v>62012106</v>
-      </c>
-    </row>
-    <row r="70" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="3">
-        <v>52011301</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="3">
-        <v>62012201</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>62012201</v>
-      </c>
-      <c r="I70" s="3">
-        <v>62012301</v>
-      </c>
-      <c r="J70" s="3">
-        <v>62012301</v>
-      </c>
-    </row>
-    <row r="71" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="3">
-        <v>52011302</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E71" s="3">
-        <v>62012202</v>
-      </c>
-      <c r="F71" s="3">
-        <v>0</v>
-      </c>
-      <c r="G71" s="3">
-        <v>0</v>
-      </c>
-      <c r="H71" s="3">
-        <v>62012202</v>
-      </c>
-      <c r="I71" s="3">
-        <v>62012302</v>
-      </c>
-      <c r="J71" s="3">
-        <v>62012302</v>
-      </c>
-    </row>
-    <row r="72" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="3">
-        <v>52011303</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="3">
-        <v>62012203</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>62012203</v>
-      </c>
-      <c r="I72" s="3">
-        <v>62012303</v>
-      </c>
-      <c r="J72" s="3">
-        <v>62012303</v>
-      </c>
-    </row>
-    <row r="73" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="3">
-        <v>52011304</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E73" s="3">
-        <v>62012204</v>
-      </c>
-      <c r="F73" s="3">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3">
-        <v>0</v>
-      </c>
-      <c r="H73" s="3">
-        <v>62012204</v>
-      </c>
-      <c r="I73" s="3">
-        <v>62012304</v>
-      </c>
-      <c r="J73" s="3">
-        <v>62012304</v>
-      </c>
-    </row>
-    <row r="74" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="3">
-        <v>52011305</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" s="3">
-        <v>62012205</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0</v>
-      </c>
-      <c r="G74" s="3">
-        <v>0</v>
-      </c>
-      <c r="H74" s="3">
-        <v>62012205</v>
-      </c>
-      <c r="I74" s="3">
-        <v>62012305</v>
-      </c>
-      <c r="J74" s="3">
-        <v>62012305</v>
-      </c>
-    </row>
-    <row r="75" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="3">
-        <v>52011306</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E75" s="3">
-        <v>62012206</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0</v>
-      </c>
-      <c r="G75" s="3">
-        <v>0</v>
-      </c>
-      <c r="H75" s="3">
-        <v>62012206</v>
-      </c>
-      <c r="I75" s="3">
-        <v>62012306</v>
-      </c>
-      <c r="J75" s="3">
-        <v>62012306</v>
-      </c>
-    </row>
-    <row r="76" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="3">
-        <v>53011101</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E76" s="3">
-        <v>63011101</v>
-      </c>
-      <c r="F76" s="3">
-        <v>63011201</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>63011101</v>
-      </c>
-    </row>
-    <row r="77" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="3">
-        <v>53011102</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" s="3">
-        <v>63011102</v>
-      </c>
-      <c r="F77" s="3">
-        <v>63011202</v>
-      </c>
-      <c r="G77" s="3">
-        <v>0</v>
-      </c>
-      <c r="H77" s="3">
-        <v>0</v>
-      </c>
-      <c r="I77" s="3">
-        <v>0</v>
-      </c>
-      <c r="J77" s="3">
-        <v>63011102</v>
-      </c>
-    </row>
-    <row r="78" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="3">
-        <v>53011103</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E78" s="3">
-        <v>63011103</v>
-      </c>
-      <c r="F78" s="3">
-        <v>63011203</v>
-      </c>
-      <c r="G78" s="3">
-        <v>0</v>
-      </c>
-      <c r="H78" s="3">
-        <v>0</v>
-      </c>
-      <c r="I78" s="3">
-        <v>0</v>
-      </c>
-      <c r="J78" s="3">
-        <v>63011103</v>
-      </c>
-    </row>
-    <row r="79" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="3">
-        <v>53011104</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" s="3">
-        <v>63011104</v>
-      </c>
-      <c r="F79" s="3">
-        <v>63011204</v>
-      </c>
-      <c r="G79" s="3">
-        <v>0</v>
-      </c>
       <c r="H79" s="3">
         <v>0</v>
       </c>
@@ -2515,24 +2527,24 @@
         <v>0</v>
       </c>
       <c r="J79" s="3">
-        <v>63011104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="3">
-        <v>53011105</v>
+        <v>51011305</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E80" s="3">
-        <v>63011105</v>
+        <v>61012305</v>
       </c>
       <c r="F80" s="3">
-        <v>63011205</v>
+        <v>61012305</v>
       </c>
       <c r="G80" s="3">
-        <v>0</v>
+        <v>61011305</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
@@ -2541,24 +2553,24 @@
         <v>0</v>
       </c>
       <c r="J80" s="3">
-        <v>63011105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="3">
-        <v>53011106</v>
+        <v>51011306</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E81" s="3">
-        <v>63011106</v>
+        <v>61012306</v>
       </c>
       <c r="F81" s="3">
-        <v>63011206</v>
+        <v>61012306</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>61011306</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -2567,356 +2579,956 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>63011106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="3">
-        <v>53011201</v>
+        <v>52011101</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E82" s="3">
-        <v>63011301</v>
+        <v>62011101</v>
       </c>
       <c r="F82" s="3">
-        <v>63012101</v>
+        <v>0</v>
       </c>
       <c r="G82" s="3">
         <v>0</v>
       </c>
       <c r="H82" s="3">
-        <v>0</v>
+        <v>62011101</v>
       </c>
       <c r="I82" s="3">
-        <v>0</v>
+        <v>62011201</v>
       </c>
       <c r="J82" s="3">
-        <v>63011301</v>
+        <v>62011201</v>
       </c>
     </row>
     <row r="83" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="3">
-        <v>53011202</v>
+        <v>52011102</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E83" s="3">
-        <v>63011302</v>
+        <v>62011102</v>
       </c>
       <c r="F83" s="3">
-        <v>63012102</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>62011102</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>62011202</v>
       </c>
       <c r="J83" s="3">
-        <v>63011302</v>
+        <v>62011202</v>
       </c>
     </row>
     <row r="84" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="3">
-        <v>53011203</v>
+        <v>52011103</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E84" s="3">
-        <v>63011303</v>
+        <v>62011103</v>
       </c>
       <c r="F84" s="3">
-        <v>63012103</v>
+        <v>0</v>
       </c>
       <c r="G84" s="3">
         <v>0</v>
       </c>
       <c r="H84" s="3">
-        <v>0</v>
+        <v>62011103</v>
       </c>
       <c r="I84" s="3">
-        <v>0</v>
+        <v>62011203</v>
       </c>
       <c r="J84" s="3">
-        <v>63011303</v>
+        <v>62011203</v>
       </c>
     </row>
     <row r="85" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="3">
-        <v>53011204</v>
+        <v>52011104</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E85" s="3">
-        <v>63011304</v>
+        <v>62011104</v>
       </c>
       <c r="F85" s="3">
-        <v>63012104</v>
+        <v>0</v>
       </c>
       <c r="G85" s="3">
         <v>0</v>
       </c>
       <c r="H85" s="3">
-        <v>0</v>
+        <v>62011104</v>
       </c>
       <c r="I85" s="3">
-        <v>0</v>
+        <v>62011204</v>
       </c>
       <c r="J85" s="3">
-        <v>63011304</v>
+        <v>62011204</v>
       </c>
     </row>
     <row r="86" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="3">
-        <v>53011205</v>
+        <v>52011105</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E86" s="3">
-        <v>63011305</v>
+        <v>62011105</v>
       </c>
       <c r="F86" s="3">
-        <v>63012105</v>
+        <v>0</v>
       </c>
       <c r="G86" s="3">
         <v>0</v>
       </c>
       <c r="H86" s="3">
-        <v>0</v>
+        <v>62011105</v>
       </c>
       <c r="I86" s="3">
-        <v>0</v>
+        <v>62011205</v>
       </c>
       <c r="J86" s="3">
-        <v>63011305</v>
+        <v>62011205</v>
       </c>
     </row>
     <row r="87" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="3">
-        <v>53011206</v>
+        <v>52011106</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E87" s="3">
-        <v>63011306</v>
+        <v>62011106</v>
       </c>
       <c r="F87" s="3">
-        <v>63012106</v>
+        <v>0</v>
       </c>
       <c r="G87" s="3">
         <v>0</v>
       </c>
       <c r="H87" s="3">
-        <v>0</v>
+        <v>62011106</v>
       </c>
       <c r="I87" s="3">
-        <v>0</v>
+        <v>62011206</v>
       </c>
       <c r="J87" s="3">
-        <v>63011306</v>
+        <v>62011206</v>
       </c>
     </row>
     <row r="88" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="3">
-        <v>53011301</v>
+        <v>52011201</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E88" s="3">
-        <v>63012201</v>
+        <v>62011301</v>
       </c>
       <c r="F88" s="3">
-        <v>63012301</v>
+        <v>0</v>
       </c>
       <c r="G88" s="3">
         <v>0</v>
       </c>
       <c r="H88" s="3">
-        <v>0</v>
+        <v>62011301</v>
       </c>
       <c r="I88" s="3">
-        <v>0</v>
+        <v>62012101</v>
       </c>
       <c r="J88" s="3">
-        <v>63012201</v>
+        <v>62012101</v>
       </c>
     </row>
     <row r="89" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="3">
-        <v>53011302</v>
+        <v>52011202</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E89" s="3">
-        <v>63012202</v>
+        <v>62011302</v>
       </c>
       <c r="F89" s="3">
-        <v>63012302</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>62011302</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>62012102</v>
       </c>
       <c r="J89" s="3">
-        <v>63012202</v>
+        <v>62012102</v>
       </c>
     </row>
     <row r="90" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="3">
-        <v>53011303</v>
+        <v>52011203</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E90" s="3">
-        <v>63012203</v>
+        <v>62011303</v>
       </c>
       <c r="F90" s="3">
-        <v>63012303</v>
+        <v>0</v>
       </c>
       <c r="G90" s="3">
         <v>0</v>
       </c>
       <c r="H90" s="3">
-        <v>0</v>
+        <v>62011303</v>
       </c>
       <c r="I90" s="3">
-        <v>0</v>
+        <v>62012103</v>
       </c>
       <c r="J90" s="3">
-        <v>63012203</v>
+        <v>62012103</v>
       </c>
     </row>
     <row r="91" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="3">
-        <v>53011304</v>
+        <v>52011204</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E91" s="3">
-        <v>63012204</v>
+        <v>62011304</v>
       </c>
       <c r="F91" s="3">
-        <v>63012304</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>62011304</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>62012104</v>
       </c>
       <c r="J91" s="3">
-        <v>63012204</v>
+        <v>62012104</v>
       </c>
     </row>
     <row r="92" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="3">
-        <v>53011305</v>
+        <v>52011205</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E92" s="3">
-        <v>63012205</v>
+        <v>62011305</v>
       </c>
       <c r="F92" s="3">
-        <v>63012305</v>
+        <v>0</v>
       </c>
       <c r="G92" s="3">
         <v>0</v>
       </c>
       <c r="H92" s="3">
-        <v>0</v>
+        <v>62011305</v>
       </c>
       <c r="I92" s="3">
-        <v>0</v>
+        <v>62012105</v>
       </c>
       <c r="J92" s="3">
-        <v>63012205</v>
+        <v>62012105</v>
       </c>
     </row>
     <row r="93" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="3">
+        <v>52011206</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="3">
+        <v>62011306</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
+        <v>62011306</v>
+      </c>
+      <c r="I93" s="3">
+        <v>62012106</v>
+      </c>
+      <c r="J93" s="3">
+        <v>62012106</v>
+      </c>
+    </row>
+    <row r="94" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C94" s="3">
+        <v>52011301</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="3">
+        <v>62012201</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>62012201</v>
+      </c>
+      <c r="I94" s="3">
+        <v>62012301</v>
+      </c>
+      <c r="J94" s="3">
+        <v>62012301</v>
+      </c>
+    </row>
+    <row r="95" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C95" s="3">
+        <v>52011302</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="3">
+        <v>62012202</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0</v>
+      </c>
+      <c r="G95" s="3">
+        <v>0</v>
+      </c>
+      <c r="H95" s="3">
+        <v>62012202</v>
+      </c>
+      <c r="I95" s="3">
+        <v>62012302</v>
+      </c>
+      <c r="J95" s="3">
+        <v>62012302</v>
+      </c>
+    </row>
+    <row r="96" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C96" s="3">
+        <v>52011303</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="3">
+        <v>62012203</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>62012203</v>
+      </c>
+      <c r="I96" s="3">
+        <v>62012303</v>
+      </c>
+      <c r="J96" s="3">
+        <v>62012303</v>
+      </c>
+    </row>
+    <row r="97" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C97" s="3">
+        <v>52011304</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="3">
+        <v>62012204</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0</v>
+      </c>
+      <c r="H97" s="3">
+        <v>62012204</v>
+      </c>
+      <c r="I97" s="3">
+        <v>62012304</v>
+      </c>
+      <c r="J97" s="3">
+        <v>62012304</v>
+      </c>
+    </row>
+    <row r="98" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C98" s="3">
+        <v>52011305</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="3">
+        <v>62012205</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0</v>
+      </c>
+      <c r="H98" s="3">
+        <v>62012205</v>
+      </c>
+      <c r="I98" s="3">
+        <v>62012305</v>
+      </c>
+      <c r="J98" s="3">
+        <v>62012305</v>
+      </c>
+    </row>
+    <row r="99" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C99" s="3">
+        <v>52011306</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="3">
+        <v>62012206</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0</v>
+      </c>
+      <c r="H99" s="3">
+        <v>62012206</v>
+      </c>
+      <c r="I99" s="3">
+        <v>62012306</v>
+      </c>
+      <c r="J99" s="3">
+        <v>62012306</v>
+      </c>
+    </row>
+    <row r="100" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C100" s="3">
+        <v>53011101</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="3">
+        <v>63011101</v>
+      </c>
+      <c r="F100" s="3">
+        <v>63011201</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>63011101</v>
+      </c>
+    </row>
+    <row r="101" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C101" s="3">
+        <v>53011102</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="3">
+        <v>63011102</v>
+      </c>
+      <c r="F101" s="3">
+        <v>63011202</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>63011102</v>
+      </c>
+    </row>
+    <row r="102" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="3">
+        <v>53011103</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="3">
+        <v>63011103</v>
+      </c>
+      <c r="F102" s="3">
+        <v>63011203</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>63011103</v>
+      </c>
+    </row>
+    <row r="103" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C103" s="3">
+        <v>53011104</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="3">
+        <v>63011104</v>
+      </c>
+      <c r="F103" s="3">
+        <v>63011204</v>
+      </c>
+      <c r="G103" s="3">
+        <v>0</v>
+      </c>
+      <c r="H103" s="3">
+        <v>0</v>
+      </c>
+      <c r="I103" s="3">
+        <v>0</v>
+      </c>
+      <c r="J103" s="3">
+        <v>63011104</v>
+      </c>
+    </row>
+    <row r="104" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C104" s="3">
+        <v>53011105</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="3">
+        <v>63011105</v>
+      </c>
+      <c r="F104" s="3">
+        <v>63011205</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0</v>
+      </c>
+      <c r="H104" s="3">
+        <v>0</v>
+      </c>
+      <c r="I104" s="3">
+        <v>0</v>
+      </c>
+      <c r="J104" s="3">
+        <v>63011105</v>
+      </c>
+    </row>
+    <row r="105" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C105" s="3">
+        <v>53011106</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="3">
+        <v>63011106</v>
+      </c>
+      <c r="F105" s="3">
+        <v>63011206</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0</v>
+      </c>
+      <c r="H105" s="3">
+        <v>0</v>
+      </c>
+      <c r="I105" s="3">
+        <v>0</v>
+      </c>
+      <c r="J105" s="3">
+        <v>63011106</v>
+      </c>
+    </row>
+    <row r="106" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="3">
+        <v>53011201</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" s="3">
+        <v>63011301</v>
+      </c>
+      <c r="F106" s="3">
+        <v>63012101</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0</v>
+      </c>
+      <c r="H106" s="3">
+        <v>0</v>
+      </c>
+      <c r="I106" s="3">
+        <v>0</v>
+      </c>
+      <c r="J106" s="3">
+        <v>63011301</v>
+      </c>
+    </row>
+    <row r="107" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="3">
+        <v>53011202</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" s="3">
+        <v>63011302</v>
+      </c>
+      <c r="F107" s="3">
+        <v>63012102</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0</v>
+      </c>
+      <c r="H107" s="3">
+        <v>0</v>
+      </c>
+      <c r="I107" s="3">
+        <v>0</v>
+      </c>
+      <c r="J107" s="3">
+        <v>63011302</v>
+      </c>
+    </row>
+    <row r="108" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="3">
+        <v>53011203</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" s="3">
+        <v>63011303</v>
+      </c>
+      <c r="F108" s="3">
+        <v>63012103</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0</v>
+      </c>
+      <c r="H108" s="3">
+        <v>0</v>
+      </c>
+      <c r="I108" s="3">
+        <v>0</v>
+      </c>
+      <c r="J108" s="3">
+        <v>63011303</v>
+      </c>
+    </row>
+    <row r="109" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="3">
+        <v>53011204</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" s="3">
+        <v>63011304</v>
+      </c>
+      <c r="F109" s="3">
+        <v>63012104</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0</v>
+      </c>
+      <c r="H109" s="3">
+        <v>0</v>
+      </c>
+      <c r="I109" s="3">
+        <v>0</v>
+      </c>
+      <c r="J109" s="3">
+        <v>63011304</v>
+      </c>
+    </row>
+    <row r="110" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C110" s="3">
+        <v>53011205</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" s="3">
+        <v>63011305</v>
+      </c>
+      <c r="F110" s="3">
+        <v>63012105</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0</v>
+      </c>
+      <c r="H110" s="3">
+        <v>0</v>
+      </c>
+      <c r="I110" s="3">
+        <v>0</v>
+      </c>
+      <c r="J110" s="3">
+        <v>63011305</v>
+      </c>
+    </row>
+    <row r="111" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C111" s="3">
+        <v>53011206</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" s="3">
+        <v>63011306</v>
+      </c>
+      <c r="F111" s="3">
+        <v>63012106</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0</v>
+      </c>
+      <c r="H111" s="3">
+        <v>0</v>
+      </c>
+      <c r="I111" s="3">
+        <v>0</v>
+      </c>
+      <c r="J111" s="3">
+        <v>63011306</v>
+      </c>
+    </row>
+    <row r="112" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C112" s="3">
+        <v>53011301</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E112" s="3">
+        <v>63012201</v>
+      </c>
+      <c r="F112" s="3">
+        <v>63012301</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0</v>
+      </c>
+      <c r="H112" s="3">
+        <v>0</v>
+      </c>
+      <c r="I112" s="3">
+        <v>0</v>
+      </c>
+      <c r="J112" s="3">
+        <v>63012201</v>
+      </c>
+    </row>
+    <row r="113" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="3">
+        <v>53011302</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" s="3">
+        <v>63012202</v>
+      </c>
+      <c r="F113" s="3">
+        <v>63012302</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0</v>
+      </c>
+      <c r="H113" s="3">
+        <v>0</v>
+      </c>
+      <c r="I113" s="3">
+        <v>0</v>
+      </c>
+      <c r="J113" s="3">
+        <v>63012202</v>
+      </c>
+    </row>
+    <row r="114" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C114" s="3">
+        <v>53011303</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E114" s="3">
+        <v>63012203</v>
+      </c>
+      <c r="F114" s="3">
+        <v>63012303</v>
+      </c>
+      <c r="G114" s="3">
+        <v>0</v>
+      </c>
+      <c r="H114" s="3">
+        <v>0</v>
+      </c>
+      <c r="I114" s="3">
+        <v>0</v>
+      </c>
+      <c r="J114" s="3">
+        <v>63012203</v>
+      </c>
+    </row>
+    <row r="115" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C115" s="3">
+        <v>53011304</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" s="3">
+        <v>63012204</v>
+      </c>
+      <c r="F115" s="3">
+        <v>63012304</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0</v>
+      </c>
+      <c r="H115" s="3">
+        <v>0</v>
+      </c>
+      <c r="I115" s="3">
+        <v>0</v>
+      </c>
+      <c r="J115" s="3">
+        <v>63012204</v>
+      </c>
+    </row>
+    <row r="116" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C116" s="3">
+        <v>53011305</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" s="3">
+        <v>63012205</v>
+      </c>
+      <c r="F116" s="3">
+        <v>63012305</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0</v>
+      </c>
+      <c r="H116" s="3">
+        <v>0</v>
+      </c>
+      <c r="I116" s="3">
+        <v>0</v>
+      </c>
+      <c r="J116" s="3">
+        <v>63012205</v>
+      </c>
+    </row>
+    <row r="117" spans="3:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C117" s="3">
         <v>53011306</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E117" s="3">
         <v>63012206</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F117" s="3">
         <v>63012306</v>
       </c>
-      <c r="G93" s="3">
-        <v>0</v>
-      </c>
-      <c r="H93" s="3">
-        <v>0</v>
-      </c>
-      <c r="I93" s="3">
-        <v>0</v>
-      </c>
-      <c r="J93" s="3">
+      <c r="G117" s="3">
+        <v>0</v>
+      </c>
+      <c r="H117" s="3">
+        <v>0</v>
+      </c>
+      <c r="I117" s="3">
+        <v>0</v>
+      </c>
+      <c r="J117" s="3">
         <v>63012206</v>
       </c>
     </row>
-    <row r="94" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="129" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="130" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="131" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2928,6 +3540,30 @@
     <row r="137" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="138" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="139" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
